--- a/MatchTA_Server/Capstone_Project.xlsx
+++ b/MatchTA_Server/Capstone_Project.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="177">
   <si>
     <t>Course Number</t>
   </si>
@@ -43,58 +43,112 @@
     <t>Room Number</t>
   </si>
   <si>
+    <t>8000-14</t>
+  </si>
+  <si>
+    <t>7000-2</t>
+  </si>
+  <si>
+    <t>4366-1</t>
+  </si>
+  <si>
+    <t>5381-1</t>
+  </si>
+  <si>
+    <t>7000-20</t>
+  </si>
+  <si>
+    <t>6001-7</t>
+  </si>
+  <si>
+    <t>5331-4</t>
+  </si>
+  <si>
+    <t>8000-3</t>
+  </si>
+  <si>
+    <t>8000-20</t>
+  </si>
+  <si>
+    <t>3350-2</t>
+  </si>
+  <si>
+    <t>5375-1</t>
+  </si>
+  <si>
+    <t>5000-1</t>
+  </si>
+  <si>
+    <t>3383-1</t>
+  </si>
+  <si>
+    <t>7000-11</t>
+  </si>
+  <si>
+    <t>4331-4</t>
+  </si>
+  <si>
+    <t>5340-1</t>
+  </si>
+  <si>
+    <t>3364-1</t>
+  </si>
+  <si>
+    <t>6000-10</t>
+  </si>
+  <si>
+    <t>8000-5</t>
+  </si>
+  <si>
+    <t>3368-1</t>
+  </si>
+  <si>
+    <t>4352-1</t>
+  </si>
+  <si>
+    <t>8000-18</t>
+  </si>
+  <si>
+    <t>7000-22</t>
+  </si>
+  <si>
+    <t>8000-12</t>
+  </si>
+  <si>
+    <t>4379-1</t>
+  </si>
+  <si>
+    <t>8000-9</t>
+  </si>
+  <si>
+    <t>3361-1</t>
+  </si>
+  <si>
+    <t>8000-16</t>
+  </si>
+  <si>
+    <t>8000-15</t>
+  </si>
+  <si>
+    <t>4392-1</t>
+  </si>
+  <si>
+    <t>8000-17</t>
+  </si>
+  <si>
+    <t>7000-12</t>
+  </si>
+  <si>
+    <t>6001-11</t>
+  </si>
+  <si>
     <t>5384-1</t>
   </si>
   <si>
-    <t>5381-1</t>
-  </si>
-  <si>
-    <t>7000-22</t>
-  </si>
-  <si>
-    <t>8000-20</t>
-  </si>
-  <si>
-    <t>8000-9</t>
-  </si>
-  <si>
-    <t>7000-12</t>
-  </si>
-  <si>
-    <t>3383-1</t>
-  </si>
-  <si>
-    <t>8000-3</t>
-  </si>
-  <si>
-    <t>3361-1</t>
-  </si>
-  <si>
-    <t>8000-18</t>
-  </si>
-  <si>
-    <t>5340-1</t>
-  </si>
-  <si>
-    <t>8000-14</t>
-  </si>
-  <si>
-    <t>4366-1</t>
-  </si>
-  <si>
-    <t>6000-10</t>
-  </si>
-  <si>
-    <t>7000-2</t>
-  </si>
-  <si>
-    <t>8000-16</t>
-  </si>
-  <si>
-    <t>3368-1</t>
-  </si>
-  <si>
-    <t>8000-12</t>
+    <t>8000-19</t>
+  </si>
+  <si>
+    <t>7000-19</t>
   </si>
   <si>
     <t>2413-1</t>
@@ -109,355 +163,370 @@
     <t>2413-503</t>
   </si>
   <si>
-    <t>8000-5</t>
-  </si>
-  <si>
-    <t>7000-20</t>
-  </si>
-  <si>
-    <t>7000-11</t>
-  </si>
-  <si>
-    <t>3364-1</t>
-  </si>
-  <si>
-    <t>5375-1</t>
-  </si>
-  <si>
-    <t>4352-1</t>
-  </si>
-  <si>
-    <t>5331-4</t>
-  </si>
-  <si>
-    <t>8000-15</t>
-  </si>
-  <si>
     <t>8000-7</t>
   </si>
   <si>
-    <t>4392-1</t>
-  </si>
-  <si>
-    <t>3350-2</t>
-  </si>
-  <si>
-    <t>4379-1</t>
-  </si>
-  <si>
-    <t>8000-19</t>
-  </si>
-  <si>
-    <t>4331-4</t>
-  </si>
-  <si>
-    <t>8000-17</t>
-  </si>
-  <si>
-    <t>6001-11</t>
-  </si>
-  <si>
-    <t>5000-1</t>
-  </si>
-  <si>
-    <t>7000-19</t>
-  </si>
-  <si>
-    <t>6001-7</t>
+    <t>6001-5</t>
+  </si>
+  <si>
+    <t>6001-10</t>
+  </si>
+  <si>
+    <t>7000-17</t>
+  </si>
+  <si>
+    <t>5368-1</t>
+  </si>
+  <si>
+    <t>7000-18</t>
+  </si>
+  <si>
+    <t>5383-1</t>
+  </si>
+  <si>
+    <t>6001-12</t>
+  </si>
+  <si>
+    <t>1382-1</t>
+  </si>
+  <si>
+    <t>8000-13</t>
+  </si>
+  <si>
+    <t>3365-1</t>
+  </si>
+  <si>
+    <t>6001-2</t>
+  </si>
+  <si>
+    <t>6000-12</t>
+  </si>
+  <si>
+    <t>6001-16</t>
+  </si>
+  <si>
+    <t>5388-1</t>
+  </si>
+  <si>
+    <t>Victor Sheng</t>
+  </si>
+  <si>
+    <t>Tommy Dang</t>
+  </si>
+  <si>
+    <t>Uma Chinta Chinta</t>
+  </si>
+  <si>
+    <t>Yu Zhuang</t>
+  </si>
+  <si>
+    <t>Susan Mengel</t>
+  </si>
+  <si>
+    <t>Tianxi Ji</t>
+  </si>
+  <si>
+    <t>Jingjing Yao</t>
+  </si>
+  <si>
+    <t>Mustafa Alam</t>
+  </si>
+  <si>
+    <t>Yuanlin Zhang</t>
+  </si>
+  <si>
+    <t>Lu Wei</t>
+  </si>
+  <si>
+    <t>Abdul Serwadda</t>
+  </si>
+  <si>
+    <t>Tara Salman</t>
+  </si>
+  <si>
+    <t>Stas Tiomkin</t>
+  </si>
+  <si>
+    <t>Zihao Zhan</t>
+  </si>
+  <si>
+    <t>Eric Rees</t>
+  </si>
+  <si>
+    <t>Akbar Siami Namin</t>
+  </si>
+  <si>
+    <t>Eonsuk Shin</t>
+  </si>
+  <si>
+    <t>Song Liao</t>
   </si>
   <si>
     <t>Muhammad Ikram</t>
   </si>
   <si>
-    <t>Uma Chinta Chinta</t>
-  </si>
-  <si>
-    <t>Yu Zhuang</t>
-  </si>
-  <si>
-    <t>Susan Mengel</t>
-  </si>
-  <si>
-    <t>Victor Sheng</t>
-  </si>
-  <si>
-    <t>Lu Wei</t>
-  </si>
-  <si>
-    <t>Jingjing Yao</t>
-  </si>
-  <si>
-    <t>Eric Rees</t>
-  </si>
-  <si>
-    <t>Zihao Zhan</t>
-  </si>
-  <si>
-    <t>Abdul Serwadda</t>
-  </si>
-  <si>
-    <t>Tara Salman</t>
-  </si>
-  <si>
-    <t>Tommy Dang</t>
-  </si>
-  <si>
-    <t>Akbar Siami Namin</t>
-  </si>
-  <si>
-    <t>Stas Tiomkin</t>
-  </si>
-  <si>
-    <t>Tianxi Ji</t>
-  </si>
-  <si>
-    <t>Eonsuk Shin</t>
-  </si>
-  <si>
     <t>Sunho Lim</t>
   </si>
   <si>
-    <t>Song Liao</t>
-  </si>
-  <si>
-    <t>Mustafa Alam</t>
-  </si>
-  <si>
-    <t>Yuanlin Zhang</t>
+    <t>Scott Franklin</t>
+  </si>
+  <si>
+    <t>Don Pathirage</t>
+  </si>
+  <si>
+    <t>Xin Zhang (DGSA)</t>
+  </si>
+  <si>
+    <t>Phornsawan Roemsri</t>
+  </si>
+  <si>
+    <t>Sai Sharanya Yellampalli</t>
+  </si>
+  <si>
+    <t>Linpeng Sun</t>
+  </si>
+  <si>
+    <t>Pallavi Zambare (DGSA)</t>
+  </si>
+  <si>
+    <t>Divya Sree Vemula</t>
+  </si>
+  <si>
+    <t>Rukayat Olapojoye</t>
+  </si>
+  <si>
+    <t>Rakib Hossain Rifat (DGSA)</t>
+  </si>
+  <si>
+    <t>Juan Marcelo Gutierrez Carballo</t>
+  </si>
+  <si>
+    <t>Farzana Fariha</t>
+  </si>
+  <si>
+    <t>Gaoxiang Li</t>
+  </si>
+  <si>
+    <t>Imran Pinjari (DGSA)</t>
+  </si>
+  <si>
+    <t>Joshika Geddam</t>
+  </si>
+  <si>
+    <t>Hasan Alqudah</t>
+  </si>
+  <si>
+    <t>Sasi Kiran Boyapati</t>
+  </si>
+  <si>
+    <t>Muhammad Aziz Ullah</t>
+  </si>
+  <si>
+    <t>Zhenyu Xu</t>
+  </si>
+  <si>
+    <t>Amir Faiyaz (DGSA)</t>
+  </si>
+  <si>
+    <t>Linfeng Wei</t>
+  </si>
+  <si>
+    <t>Seyed Soroush Tabadkani Avval</t>
+  </si>
+  <si>
+    <t>Dinesh Bobburu</t>
+  </si>
+  <si>
+    <t>Liyuan Gao (DGSA)</t>
+  </si>
+  <si>
+    <t>Md Mahabub Uz Zaman</t>
+  </si>
+  <si>
+    <t>Samin Dehbashi Sani</t>
+  </si>
+  <si>
+    <t>Rohit Viswakarma Pidishetti</t>
+  </si>
+  <si>
+    <t>Ban Tran (DGSA)</t>
+  </si>
+  <si>
+    <t>Susmitha Reddy Bodam</t>
+  </si>
+  <si>
+    <t>Namgyu Han</t>
+  </si>
+  <si>
+    <t>Usha Raman Adapa (DGSA)</t>
+  </si>
+  <si>
+    <t>Kattula Vaishnavi</t>
+  </si>
+  <si>
+    <t>Sonali Singh</t>
+  </si>
+  <si>
+    <t>Ruoyu Xu</t>
+  </si>
+  <si>
+    <t>Denish Otieno</t>
   </si>
   <si>
     <t xml:space="preserve">Nabonita Mitra </t>
   </si>
   <si>
-    <t>Linpeng Sun</t>
-  </si>
-  <si>
-    <t>Md Mahabub Uz Zaman</t>
-  </si>
-  <si>
-    <t>Juan Marcelo Gutierrez Carballo</t>
-  </si>
-  <si>
-    <t>Ban Tran (DGSA)</t>
-  </si>
-  <si>
-    <t>Ruoyu Xu</t>
-  </si>
-  <si>
-    <t>Joshika Geddam</t>
-  </si>
-  <si>
-    <t>Rakib Hossain Rifat (DGSA)</t>
-  </si>
-  <si>
-    <t>Susmitha Reddy Bodam</t>
-  </si>
-  <si>
-    <t>Liyuan Gao (DGSA)</t>
-  </si>
-  <si>
-    <t>Muhammad Aziz Ullah</t>
-  </si>
-  <si>
-    <t>Xin Zhang (DGSA)</t>
-  </si>
-  <si>
-    <t>Sai Sharanya Yellampalli</t>
-  </si>
-  <si>
-    <t>Amir Faiyaz (DGSA)</t>
-  </si>
-  <si>
-    <t>Phornsawan Roemsri</t>
-  </si>
-  <si>
-    <t>Namgyu Han</t>
-  </si>
-  <si>
-    <t>Seyed Soroush Tabadkani Avval</t>
-  </si>
-  <si>
-    <t>Samin Dehbashi Sani</t>
+    <t>Kwesi Danso (half RA half TA)</t>
+  </si>
+  <si>
+    <t>Joshua Archer</t>
   </si>
   <si>
     <t>Anurag Nandyala</t>
   </si>
   <si>
-    <t>Linfeng Wei</t>
-  </si>
-  <si>
-    <t>Pallavi Zambare (DGSA)</t>
-  </si>
-  <si>
-    <t>Hasan Alqudah</t>
-  </si>
-  <si>
-    <t>Zhenyu Xu</t>
-  </si>
-  <si>
-    <t>Gaoxiang Li</t>
-  </si>
-  <si>
-    <t>Dinesh Bobburu</t>
-  </si>
-  <si>
-    <t>Rukayat Olapojoye</t>
-  </si>
-  <si>
-    <t>Usha Raman Adapa (DGSA)</t>
-  </si>
-  <si>
     <t>Sthephany Rojas</t>
   </si>
   <si>
-    <t>Kattula Vaishnavi</t>
-  </si>
-  <si>
-    <t>Farzana Fariha</t>
-  </si>
-  <si>
-    <t>Rohit Viswakarma Pidishetti</t>
-  </si>
-  <si>
-    <t>Kwesi Danso (half RA half TA)</t>
-  </si>
-  <si>
-    <t>Sasi Kiran Boyapati</t>
-  </si>
-  <si>
-    <t>Sonali Singh</t>
-  </si>
-  <si>
-    <t>Denish Otieno</t>
-  </si>
-  <si>
-    <t>Imran Pinjari (DGSA)</t>
-  </si>
-  <si>
-    <t>Joshua Archer</t>
-  </si>
-  <si>
-    <t>Divya Sree Vemula</t>
+    <t>Doctor's Dissertation</t>
+  </si>
+  <si>
+    <t>Research:</t>
+  </si>
+  <si>
+    <t>Senior Capstone Project</t>
+  </si>
+  <si>
+    <t>Analysis of Algorithms</t>
+  </si>
+  <si>
+    <t>Master's Project</t>
+  </si>
+  <si>
+    <t>Special Problems in Computer Science: Security: Security &amp; Privacy in AI &amp; ML</t>
+  </si>
+  <si>
+    <t>Computer Organization and Assembly Language Programming</t>
+  </si>
+  <si>
+    <t>Computer Systems Organization and Architecture</t>
+  </si>
+  <si>
+    <t>Practicum of Computing</t>
+  </si>
+  <si>
+    <t>Theory of Automata</t>
+  </si>
+  <si>
+    <t>Special Topics in Computer Science: Intro to Quantum Computing</t>
+  </si>
+  <si>
+    <t>Introduction to Information and Computer Security</t>
+  </si>
+  <si>
+    <t>Design and Analysis of Algorithms</t>
+  </si>
+  <si>
+    <t>Master's Thesis</t>
+  </si>
+  <si>
+    <t>Introduction to Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>Operating Systems</t>
+  </si>
+  <si>
+    <t>Research</t>
+  </si>
+  <si>
+    <t>Parallel and Concurrent Programming</t>
+  </si>
+  <si>
+    <t>Concepts of Programming Languages</t>
+  </si>
+  <si>
+    <t>Computer Networks</t>
   </si>
   <si>
     <t>Logic for Computer Scientists</t>
   </si>
   <si>
-    <t>Analysis of Algorithms</t>
-  </si>
-  <si>
-    <t>Research</t>
-  </si>
-  <si>
-    <t>Doctor's Dissertation</t>
-  </si>
-  <si>
-    <t>Research:</t>
-  </si>
-  <si>
-    <t>Theory of Automata</t>
-  </si>
-  <si>
-    <t>Concepts of Programming Languages</t>
-  </si>
-  <si>
-    <t>Introduction to Information and Computer Security</t>
-  </si>
-  <si>
-    <t>Senior Capstone Project</t>
-  </si>
-  <si>
-    <t>Master's Thesis</t>
-  </si>
-  <si>
-    <t>Introduction to Artificial Intelligence</t>
-  </si>
-  <si>
     <t>Data Structures</t>
   </si>
   <si>
     <t>Data Structures: Lab</t>
   </si>
   <si>
-    <t>Design and Analysis of Algorithms</t>
-  </si>
-  <si>
-    <t>Computer Systems Organization and Architecture</t>
-  </si>
-  <si>
-    <t>Operating Systems</t>
-  </si>
-  <si>
-    <t>Special Problems in Computer Science: Security: Security &amp; Privacy in AI &amp; ML</t>
-  </si>
-  <si>
-    <t>Computer Networks</t>
-  </si>
-  <si>
-    <t>Computer Organization and Assembly Language Programming</t>
-  </si>
-  <si>
-    <t>Parallel and Concurrent Programming</t>
-  </si>
-  <si>
-    <t>Special Topics in Computer Science: Intro to Quantum Computing</t>
-  </si>
-  <si>
-    <t>Master's Project</t>
-  </si>
-  <si>
-    <t>Practicum of Computing</t>
+    <t>Intelligent Systems</t>
+  </si>
+  <si>
+    <t>Discrete Computational Structures</t>
+  </si>
+  <si>
+    <t>Software Engineering</t>
+  </si>
+  <si>
+    <t>Neural Networks</t>
+  </si>
+  <si>
+    <t>TR</t>
   </si>
   <si>
     <t>MWF</t>
   </si>
   <si>
-    <t>TR</t>
-  </si>
-  <si>
     <t>T</t>
   </si>
   <si>
     <t>R</t>
   </si>
   <si>
+    <t>12:30pm-1:50pm</t>
+  </si>
+  <si>
+    <t>4:00pm-4:50pm</t>
+  </si>
+  <si>
+    <t>8:00am-8:50am</t>
+  </si>
+  <si>
+    <t>3:00pm-3:50pm</t>
+  </si>
+  <si>
+    <t>11:00am-12:20pm</t>
+  </si>
+  <si>
+    <t>8:00am-9:20am</t>
+  </si>
+  <si>
+    <t>9:00am-9:50am</t>
+  </si>
+  <si>
+    <t>1:00pm-1:50pm</t>
+  </si>
+  <si>
+    <t>12:00pm-12:50pm</t>
+  </si>
+  <si>
+    <t>10:00am-10:50am</t>
+  </si>
+  <si>
     <t>5:00pm-5:50pm</t>
   </si>
   <si>
-    <t>4:00pm-4:50pm</t>
-  </si>
-  <si>
-    <t>11:00am-12:20pm</t>
-  </si>
-  <si>
-    <t>10:00am-10:50am</t>
-  </si>
-  <si>
-    <t>9:00am-9:50am</t>
-  </si>
-  <si>
-    <t>12:30pm-1:50pm</t>
-  </si>
-  <si>
-    <t>1:00pm-1:50pm</t>
-  </si>
-  <si>
     <t>8:00am-10:50am</t>
   </si>
   <si>
     <t>2:00pm-4:50pm</t>
   </si>
   <si>
-    <t>3:00pm-3:50pm</t>
-  </si>
-  <si>
-    <t>8:00am-9:20am</t>
-  </si>
-  <si>
-    <t>8:00am-8:50am</t>
-  </si>
-  <si>
-    <t>12:00pm-12:50pm</t>
+    <t>5:00pm-6:20pm</t>
+  </si>
+  <si>
+    <t>2:00pm-3:20pm</t>
+  </si>
+  <si>
+    <t>2:00pm-2:50pm</t>
   </si>
   <si>
     <t>T Fuller Petr Eng Research</t>
@@ -466,13 +535,16 @@
     <t>Livermore Center</t>
   </si>
   <si>
+    <t>Holden Hall</t>
+  </si>
+  <si>
     <t>Electrical &amp; Computer Eng</t>
   </si>
   <si>
     <t>Mechanical Engineering North</t>
   </si>
   <si>
-    <t>Holden Hall</t>
+    <t>Indus. Manufac. and Sys. Engr</t>
   </si>
 </sst>
 </file>
@@ -830,7 +902,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -870,28 +942,16 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="E2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F2" t="s">
-        <v>131</v>
-      </c>
-      <c r="G2" t="s">
-        <v>135</v>
-      </c>
-      <c r="H2" t="s">
-        <v>148</v>
-      </c>
-      <c r="I2">
-        <v>110</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -899,28 +959,16 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="E3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H3" t="s">
-        <v>148</v>
-      </c>
-      <c r="I3">
-        <v>110</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -928,15 +976,27 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="E4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G4" t="s">
+        <v>155</v>
+      </c>
+      <c r="H4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I4">
         <v>110</v>
       </c>
     </row>
@@ -945,16 +1005,28 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="E5" t="s">
-        <v>111</v>
+        <v>127</v>
+      </c>
+      <c r="F5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G5" t="s">
+        <v>156</v>
+      </c>
+      <c r="H5" t="s">
+        <v>171</v>
+      </c>
+      <c r="I5">
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -962,16 +1034,16 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="E6" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -979,16 +1051,16 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="E7" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -996,28 +1068,28 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="D8" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="E8" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="F8" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="G8" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="H8" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="I8">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1028,13 +1100,13 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="D9" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="E9" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1042,28 +1114,16 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="E10" t="s">
-        <v>114</v>
-      </c>
-      <c r="F10" t="s">
-        <v>131</v>
-      </c>
-      <c r="G10" t="s">
-        <v>138</v>
-      </c>
-      <c r="H10" t="s">
-        <v>150</v>
-      </c>
-      <c r="I10">
-        <v>101</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1071,16 +1131,28 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="E11" t="s">
-        <v>111</v>
+        <v>130</v>
+      </c>
+      <c r="F11" t="s">
+        <v>152</v>
+      </c>
+      <c r="G11" t="s">
+        <v>157</v>
+      </c>
+      <c r="H11" t="s">
+        <v>172</v>
+      </c>
+      <c r="I11">
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1091,22 +1163,22 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D12" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="E12" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="F12" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="G12" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="H12" t="s">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="I12">
         <v>110</v>
@@ -1117,16 +1189,16 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="D13" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="E13" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1137,25 +1209,25 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="D14" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="E14" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="F14" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="G14" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="H14" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="I14">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1163,16 +1235,16 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D15" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="E15" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1180,16 +1252,25 @@
         <v>23</v>
       </c>
       <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="E16" t="s">
-        <v>112</v>
+        <v>134</v>
+      </c>
+      <c r="F16" t="s">
+        <v>151</v>
+      </c>
+      <c r="G16" t="s">
+        <v>160</v>
+      </c>
+      <c r="H16" t="s">
+        <v>173</v>
+      </c>
+      <c r="I16">
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1197,16 +1278,28 @@
         <v>24</v>
       </c>
       <c r="B17">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D17" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="E17" t="s">
-        <v>111</v>
+        <v>135</v>
+      </c>
+      <c r="F17" t="s">
+        <v>152</v>
+      </c>
+      <c r="G17" t="s">
+        <v>161</v>
+      </c>
+      <c r="H17" t="s">
+        <v>171</v>
+      </c>
+      <c r="I17">
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1217,25 +1310,25 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D18" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="E18" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="F18" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="G18" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="H18" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="I18">
-        <v>101</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1243,16 +1336,16 @@
         <v>26</v>
       </c>
       <c r="B19">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D19" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="E19" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1260,28 +1353,16 @@
         <v>27</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="D20" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="E20" t="s">
-        <v>119</v>
-      </c>
-      <c r="F20" t="s">
-        <v>132</v>
-      </c>
-      <c r="G20" t="s">
-        <v>137</v>
-      </c>
-      <c r="H20" t="s">
-        <v>151</v>
-      </c>
-      <c r="I20">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1289,22 +1370,28 @@
         <v>28</v>
       </c>
       <c r="B21">
-        <v>501</v>
+        <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="D21" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="E21" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="F21" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="G21" t="s">
-        <v>142</v>
+        <v>162</v>
+      </c>
+      <c r="H21" t="s">
+        <v>172</v>
+      </c>
+      <c r="I21">
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1312,22 +1399,28 @@
         <v>29</v>
       </c>
       <c r="B22">
-        <v>502</v>
+        <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="D22" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="E22" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="F22" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="G22" t="s">
-        <v>142</v>
+        <v>160</v>
+      </c>
+      <c r="H22" t="s">
+        <v>174</v>
+      </c>
+      <c r="I22">
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1335,22 +1428,16 @@
         <v>30</v>
       </c>
       <c r="B23">
-        <v>503</v>
+        <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="D23" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="E23" t="s">
-        <v>120</v>
-      </c>
-      <c r="F23" t="s">
-        <v>134</v>
-      </c>
-      <c r="G23" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1358,16 +1445,16 @@
         <v>31</v>
       </c>
       <c r="B24">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="D24" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="E24" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1375,16 +1462,16 @@
         <v>32</v>
       </c>
       <c r="B25">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="D25" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="E25" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1392,16 +1479,28 @@
         <v>33</v>
       </c>
       <c r="B26">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="D26" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="E26" t="s">
-        <v>112</v>
+        <v>141</v>
+      </c>
+      <c r="F26" t="s">
+        <v>152</v>
+      </c>
+      <c r="G26" t="s">
+        <v>163</v>
+      </c>
+      <c r="H26" t="s">
+        <v>174</v>
+      </c>
+      <c r="I26">
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1409,28 +1508,16 @@
         <v>34</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D27" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="E27" t="s">
-        <v>121</v>
-      </c>
-      <c r="F27" t="s">
-        <v>131</v>
-      </c>
-      <c r="G27" t="s">
-        <v>139</v>
-      </c>
-      <c r="H27" t="s">
-        <v>148</v>
-      </c>
-      <c r="I27">
-        <v>208</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1441,25 +1528,25 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="D28" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="E28" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="F28" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="G28" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="H28" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="I28">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1467,28 +1554,16 @@
         <v>36</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="D29" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="E29" t="s">
-        <v>123</v>
-      </c>
-      <c r="F29" t="s">
-        <v>132</v>
-      </c>
-      <c r="G29" t="s">
-        <v>145</v>
-      </c>
-      <c r="H29" t="s">
-        <v>150</v>
-      </c>
-      <c r="I29">
-        <v>101</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1496,28 +1571,16 @@
         <v>37</v>
       </c>
       <c r="B30">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D30" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="E30" t="s">
         <v>124</v>
-      </c>
-      <c r="F30" t="s">
-        <v>131</v>
-      </c>
-      <c r="G30" t="s">
-        <v>146</v>
-      </c>
-      <c r="H30" t="s">
-        <v>148</v>
-      </c>
-      <c r="I30">
-        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1525,16 +1588,28 @@
         <v>38</v>
       </c>
       <c r="B31">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D31" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="E31" t="s">
-        <v>111</v>
+        <v>143</v>
+      </c>
+      <c r="F31" t="s">
+        <v>152</v>
+      </c>
+      <c r="G31" t="s">
+        <v>161</v>
+      </c>
+      <c r="H31" t="s">
+        <v>173</v>
+      </c>
+      <c r="I31">
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1542,16 +1617,16 @@
         <v>39</v>
       </c>
       <c r="B32">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C32" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="D32" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="E32" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1559,28 +1634,16 @@
         <v>40</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C33" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D33" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="E33" t="s">
         <v>125</v>
-      </c>
-      <c r="F33" t="s">
-        <v>131</v>
-      </c>
-      <c r="G33" t="s">
-        <v>139</v>
-      </c>
-      <c r="H33" t="s">
-        <v>152</v>
-      </c>
-      <c r="I33">
-        <v>150</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1588,28 +1651,16 @@
         <v>41</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D34" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="E34" t="s">
-        <v>126</v>
-      </c>
-      <c r="F34" t="s">
-        <v>131</v>
-      </c>
-      <c r="G34" t="s">
-        <v>146</v>
-      </c>
-      <c r="H34" t="s">
-        <v>149</v>
-      </c>
-      <c r="I34">
-        <v>101</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1620,25 +1671,25 @@
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="D35" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="E35" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="F35" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="G35" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="H35" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="I35">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1649,13 +1700,13 @@
         <v>19</v>
       </c>
       <c r="C36" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D36" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="E36" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1663,25 +1714,16 @@
         <v>44</v>
       </c>
       <c r="B37">
-        <v>4</v>
+        <v>19</v>
+      </c>
+      <c r="C37" t="s">
+        <v>72</v>
       </c>
       <c r="D37" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="E37" t="s">
-        <v>128</v>
-      </c>
-      <c r="F37" t="s">
-        <v>132</v>
-      </c>
-      <c r="G37" t="s">
-        <v>145</v>
-      </c>
-      <c r="H37" t="s">
-        <v>152</v>
-      </c>
-      <c r="I37">
-        <v>33</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1689,16 +1731,28 @@
         <v>45</v>
       </c>
       <c r="B38">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D38" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="E38" t="s">
-        <v>111</v>
+        <v>145</v>
+      </c>
+      <c r="F38" t="s">
+        <v>151</v>
+      </c>
+      <c r="G38" t="s">
+        <v>159</v>
+      </c>
+      <c r="H38" t="s">
+        <v>175</v>
+      </c>
+      <c r="I38">
+        <v>132</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1706,16 +1760,22 @@
         <v>46</v>
       </c>
       <c r="B39">
-        <v>11</v>
+        <v>501</v>
       </c>
       <c r="C39" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="D39" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="E39" t="s">
-        <v>129</v>
+        <v>146</v>
+      </c>
+      <c r="F39" t="s">
+        <v>153</v>
+      </c>
+      <c r="G39" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1723,16 +1783,22 @@
         <v>47</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>502</v>
       </c>
       <c r="C40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D40" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="E40" t="s">
-        <v>130</v>
+        <v>146</v>
+      </c>
+      <c r="F40" t="s">
+        <v>154</v>
+      </c>
+      <c r="G40" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1740,16 +1806,22 @@
         <v>48</v>
       </c>
       <c r="B41">
-        <v>19</v>
+        <v>503</v>
       </c>
       <c r="C41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D41" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="E41" t="s">
-        <v>112</v>
+        <v>146</v>
+      </c>
+      <c r="F41" t="s">
+        <v>154</v>
+      </c>
+      <c r="G41" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1760,13 +1832,974 @@
         <v>7</v>
       </c>
       <c r="C42" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" t="s">
+        <v>123</v>
+      </c>
+      <c r="E42" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>67</v>
+      </c>
+      <c r="D43" t="s">
+        <v>119</v>
+      </c>
+      <c r="E43" t="s">
+        <v>131</v>
+      </c>
+      <c r="F43" t="s">
+        <v>152</v>
+      </c>
+      <c r="G43" t="s">
+        <v>158</v>
+      </c>
+      <c r="H43" t="s">
+        <v>171</v>
+      </c>
+      <c r="I43">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44">
+        <v>18</v>
+      </c>
+      <c r="C44" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44" t="s">
+        <v>116</v>
+      </c>
+      <c r="E44" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45">
+        <v>5</v>
+      </c>
+      <c r="C45" t="s">
+        <v>83</v>
+      </c>
+      <c r="D45" t="s">
+        <v>123</v>
+      </c>
+      <c r="E45" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46">
+        <v>10</v>
+      </c>
+      <c r="C46" t="s">
+        <v>75</v>
+      </c>
+      <c r="D46" t="s">
+        <v>109</v>
+      </c>
+      <c r="E46" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>502</v>
+      </c>
+      <c r="C47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" t="s">
+        <v>96</v>
+      </c>
+      <c r="E47" t="s">
+        <v>146</v>
+      </c>
+      <c r="F47" t="s">
+        <v>154</v>
+      </c>
+      <c r="G47" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>501</v>
+      </c>
+      <c r="C48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" t="s">
+        <v>96</v>
+      </c>
+      <c r="E48" t="s">
+        <v>146</v>
+      </c>
+      <c r="F48" t="s">
+        <v>153</v>
+      </c>
+      <c r="G48" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>502</v>
+      </c>
+      <c r="C49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" t="s">
+        <v>96</v>
+      </c>
+      <c r="E49" t="s">
+        <v>146</v>
+      </c>
+      <c r="F49" t="s">
+        <v>154</v>
+      </c>
+      <c r="G49" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>503</v>
+      </c>
+      <c r="C50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" t="s">
+        <v>96</v>
+      </c>
+      <c r="E50" t="s">
+        <v>146</v>
+      </c>
+      <c r="F50" t="s">
+        <v>154</v>
+      </c>
+      <c r="G50" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51">
+        <v>20</v>
+      </c>
+      <c r="C51" t="s">
+        <v>67</v>
+      </c>
+      <c r="D51" t="s">
+        <v>107</v>
+      </c>
+      <c r="E51" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
+        <v>31</v>
+      </c>
+      <c r="B52">
+        <v>22</v>
+      </c>
+      <c r="C52" t="s">
+        <v>66</v>
+      </c>
+      <c r="D52" t="s">
+        <v>90</v>
+      </c>
+      <c r="E52" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>17</v>
+      </c>
+      <c r="C53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D53" t="s">
+        <v>93</v>
+      </c>
+      <c r="E53" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
         <v>53</v>
       </c>
-      <c r="D42" t="s">
-        <v>107</v>
-      </c>
-      <c r="E42" t="s">
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>72</v>
+      </c>
+      <c r="D54" t="s">
+        <v>89</v>
+      </c>
+      <c r="E54" t="s">
+        <v>147</v>
+      </c>
+      <c r="F54" t="s">
+        <v>151</v>
+      </c>
+      <c r="G54" t="s">
+        <v>168</v>
+      </c>
+      <c r="H54" t="s">
+        <v>172</v>
+      </c>
+      <c r="I54">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>18</v>
+      </c>
+      <c r="C55" t="s">
+        <v>77</v>
+      </c>
+      <c r="D55" t="s">
+        <v>121</v>
+      </c>
+      <c r="E55" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>72</v>
+      </c>
+      <c r="D56" t="s">
+        <v>97</v>
+      </c>
+      <c r="E56" t="s">
+        <v>133</v>
+      </c>
+      <c r="F56" t="s">
+        <v>151</v>
+      </c>
+      <c r="G56" t="s">
+        <v>169</v>
+      </c>
+      <c r="H56" t="s">
+        <v>171</v>
+      </c>
+      <c r="I56">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57">
+        <v>7</v>
+      </c>
+      <c r="C57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" t="s">
+        <v>111</v>
+      </c>
+      <c r="E57" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>12</v>
+      </c>
+      <c r="C58" t="s">
+        <v>64</v>
+      </c>
+      <c r="D58" t="s">
+        <v>117</v>
+      </c>
+      <c r="E58" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" t="s">
+        <v>32</v>
+      </c>
+      <c r="B59">
+        <v>12</v>
+      </c>
+      <c r="C59" t="s">
+        <v>75</v>
+      </c>
+      <c r="D59" t="s">
+        <v>103</v>
+      </c>
+      <c r="E59" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" t="s">
+        <v>43</v>
+      </c>
+      <c r="B60">
+        <v>19</v>
+      </c>
+      <c r="C60" t="s">
+        <v>72</v>
+      </c>
+      <c r="D60" t="s">
+        <v>94</v>
+      </c>
+      <c r="E60" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" t="s">
+        <v>38</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>81</v>
+      </c>
+      <c r="D61" t="s">
+        <v>110</v>
+      </c>
+      <c r="E61" t="s">
+        <v>143</v>
+      </c>
+      <c r="F61" t="s">
+        <v>152</v>
+      </c>
+      <c r="G61" t="s">
+        <v>161</v>
+      </c>
+      <c r="H61" t="s">
+        <v>173</v>
+      </c>
+      <c r="I61">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" t="s">
+        <v>24</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>74</v>
+      </c>
+      <c r="D62" t="s">
+        <v>92</v>
+      </c>
+      <c r="E62" t="s">
+        <v>135</v>
+      </c>
+      <c r="F62" t="s">
+        <v>152</v>
+      </c>
+      <c r="G62" t="s">
+        <v>161</v>
+      </c>
+      <c r="H62" t="s">
+        <v>171</v>
+      </c>
+      <c r="I62">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" t="s">
+        <v>57</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>84</v>
+      </c>
+      <c r="D63" t="s">
+        <v>100</v>
+      </c>
+      <c r="E63" t="s">
+        <v>148</v>
+      </c>
+      <c r="F63" t="s">
+        <v>152</v>
+      </c>
+      <c r="G63" t="s">
+        <v>156</v>
+      </c>
+      <c r="H63" t="s">
+        <v>174</v>
+      </c>
+      <c r="I63">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" t="s">
+        <v>21</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>73</v>
+      </c>
+      <c r="D64" t="s">
+        <v>106</v>
+      </c>
+      <c r="E64" t="s">
+        <v>133</v>
+      </c>
+      <c r="F64" t="s">
+        <v>151</v>
+      </c>
+      <c r="G64" t="s">
+        <v>159</v>
+      </c>
+      <c r="H64" t="s">
+        <v>172</v>
+      </c>
+      <c r="I64">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" t="s">
+        <v>58</v>
+      </c>
+      <c r="B65">
+        <v>13</v>
+      </c>
+      <c r="C65" t="s">
+        <v>74</v>
+      </c>
+      <c r="D65" t="s">
+        <v>101</v>
+      </c>
+      <c r="E65" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" t="s">
+        <v>44</v>
+      </c>
+      <c r="B66">
+        <v>19</v>
+      </c>
+      <c r="C66" t="s">
+        <v>72</v>
+      </c>
+      <c r="D66" t="s">
+        <v>120</v>
+      </c>
+      <c r="E66" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" t="s">
+        <v>15</v>
+      </c>
+      <c r="B67">
+        <v>4</v>
+      </c>
+      <c r="C67" t="s">
+        <v>69</v>
+      </c>
+      <c r="D67" t="s">
+        <v>102</v>
+      </c>
+      <c r="E67" t="s">
         <v>129</v>
+      </c>
+      <c r="F67" t="s">
+        <v>152</v>
+      </c>
+      <c r="G67" t="s">
+        <v>157</v>
+      </c>
+      <c r="H67" t="s">
+        <v>171</v>
+      </c>
+      <c r="I67">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" t="s">
+        <v>36</v>
+      </c>
+      <c r="B68">
+        <v>16</v>
+      </c>
+      <c r="C68" t="s">
+        <v>79</v>
+      </c>
+      <c r="D68" t="s">
+        <v>114</v>
+      </c>
+      <c r="E68" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" t="s">
+        <v>33</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>78</v>
+      </c>
+      <c r="D69" t="s">
+        <v>115</v>
+      </c>
+      <c r="E69" t="s">
+        <v>141</v>
+      </c>
+      <c r="F69" t="s">
+        <v>152</v>
+      </c>
+      <c r="G69" t="s">
+        <v>163</v>
+      </c>
+      <c r="H69" t="s">
+        <v>174</v>
+      </c>
+      <c r="I69">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" t="s">
+        <v>28</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>76</v>
+      </c>
+      <c r="D70" t="s">
+        <v>88</v>
+      </c>
+      <c r="E70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
+        <v>152</v>
+      </c>
+      <c r="G70" t="s">
+        <v>162</v>
+      </c>
+      <c r="H70" t="s">
+        <v>172</v>
+      </c>
+      <c r="I70">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" t="s">
+        <v>48</v>
+      </c>
+      <c r="B71">
+        <v>503</v>
+      </c>
+      <c r="C71" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71" t="s">
+        <v>122</v>
+      </c>
+      <c r="E71" t="s">
+        <v>146</v>
+      </c>
+      <c r="F71" t="s">
+        <v>154</v>
+      </c>
+      <c r="G71" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" t="s">
+        <v>46</v>
+      </c>
+      <c r="B72">
+        <v>501</v>
+      </c>
+      <c r="C72" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" t="s">
+        <v>122</v>
+      </c>
+      <c r="E72" t="s">
+        <v>146</v>
+      </c>
+      <c r="F72" t="s">
+        <v>153</v>
+      </c>
+      <c r="G72" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" t="s">
+        <v>47</v>
+      </c>
+      <c r="B73">
+        <v>502</v>
+      </c>
+      <c r="C73" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" t="s">
+        <v>122</v>
+      </c>
+      <c r="E73" t="s">
+        <v>146</v>
+      </c>
+      <c r="F73" t="s">
+        <v>154</v>
+      </c>
+      <c r="G73" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" t="s">
+        <v>48</v>
+      </c>
+      <c r="B74">
+        <v>503</v>
+      </c>
+      <c r="C74" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" t="s">
+        <v>122</v>
+      </c>
+      <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" t="s">
+        <v>154</v>
+      </c>
+      <c r="G74" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" t="s">
+        <v>34</v>
+      </c>
+      <c r="B75">
+        <v>9</v>
+      </c>
+      <c r="C75" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" t="s">
+        <v>91</v>
+      </c>
+      <c r="E75" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" t="s">
+        <v>22</v>
+      </c>
+      <c r="B76">
+        <v>11</v>
+      </c>
+      <c r="C76" t="s">
+        <v>74</v>
+      </c>
+      <c r="D76" t="s">
+        <v>118</v>
+      </c>
+      <c r="E76" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" t="s">
+        <v>13</v>
+      </c>
+      <c r="B77">
+        <v>20</v>
+      </c>
+      <c r="C77" t="s">
+        <v>67</v>
+      </c>
+      <c r="D77" t="s">
+        <v>108</v>
+      </c>
+      <c r="E77" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" t="s">
+        <v>23</v>
+      </c>
+      <c r="B78">
+        <v>4</v>
+      </c>
+      <c r="D78" t="s">
+        <v>95</v>
+      </c>
+      <c r="E78" t="s">
+        <v>134</v>
+      </c>
+      <c r="F78" t="s">
+        <v>151</v>
+      </c>
+      <c r="G78" t="s">
+        <v>160</v>
+      </c>
+      <c r="H78" t="s">
+        <v>173</v>
+      </c>
+      <c r="I78">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" t="s">
+        <v>39</v>
+      </c>
+      <c r="B79">
+        <v>17</v>
+      </c>
+      <c r="C79" t="s">
+        <v>76</v>
+      </c>
+      <c r="D79" t="s">
+        <v>113</v>
+      </c>
+      <c r="E79" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" t="s">
+        <v>59</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>85</v>
+      </c>
+      <c r="D80" t="s">
+        <v>112</v>
+      </c>
+      <c r="E80" t="s">
+        <v>149</v>
+      </c>
+      <c r="F80" t="s">
+        <v>152</v>
+      </c>
+      <c r="G80" t="s">
+        <v>165</v>
+      </c>
+      <c r="H80" t="s">
+        <v>176</v>
+      </c>
+      <c r="I80">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" t="s">
+        <v>41</v>
+      </c>
+      <c r="B81">
+        <v>11</v>
+      </c>
+      <c r="C81" t="s">
+        <v>74</v>
+      </c>
+      <c r="D81" t="s">
+        <v>99</v>
+      </c>
+      <c r="E81" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" t="s">
+        <v>60</v>
+      </c>
+      <c r="B82">
+        <v>2</v>
+      </c>
+      <c r="C82" t="s">
+        <v>65</v>
+      </c>
+      <c r="D82" t="s">
+        <v>87</v>
+      </c>
+      <c r="E82" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" t="s">
+        <v>29</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>70</v>
+      </c>
+      <c r="D83" t="s">
+        <v>98</v>
+      </c>
+      <c r="E83" t="s">
+        <v>139</v>
+      </c>
+      <c r="F83" t="s">
+        <v>151</v>
+      </c>
+      <c r="G83" t="s">
+        <v>160</v>
+      </c>
+      <c r="H83" t="s">
+        <v>174</v>
+      </c>
+      <c r="I83">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" t="s">
+        <v>61</v>
+      </c>
+      <c r="B84">
+        <v>12</v>
+      </c>
+      <c r="C84" t="s">
+        <v>64</v>
+      </c>
+      <c r="D84" t="s">
+        <v>86</v>
+      </c>
+      <c r="E84" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" t="s">
+        <v>62</v>
+      </c>
+      <c r="B85">
+        <v>16</v>
+      </c>
+      <c r="C85" t="s">
+        <v>73</v>
+      </c>
+      <c r="D85" t="s">
+        <v>104</v>
+      </c>
+      <c r="E85" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" t="s">
+        <v>63</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>84</v>
+      </c>
+      <c r="D86" t="s">
+        <v>105</v>
+      </c>
+      <c r="E86" t="s">
+        <v>150</v>
+      </c>
+      <c r="F86" t="s">
+        <v>152</v>
+      </c>
+      <c r="G86" t="s">
+        <v>170</v>
+      </c>
+      <c r="H86" t="s">
+        <v>171</v>
+      </c>
+      <c r="I86">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/MatchTA_Server/Capstone_Project.xlsx
+++ b/MatchTA_Server/Capstone_Project.xlsx
@@ -485,59 +485,49 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>4331-4</t>
+          <t>8000-14</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
+        <v>14</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Victor Sheng</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Sasi Kiran Boyapati</t>
+          <t>Xin Zhang (DGSA)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Special Topics in Computer Science: Intro to Quantum Computing</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>8:00am-9:20am</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Holden Hall</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>33</v>
-      </c>
+          <t>Doctor's Dissertation</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>8000-20</t>
+          <t>8000-17</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Yu Zhuang</t>
+          <t>Stas Tiomkin</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Juan Marcelo Gutierrez Carballo</t>
+          <t>Sonali Singh</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -553,112 +543,150 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>8000-17</t>
+          <t>4331-4</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Stas Tiomkin</t>
-        </is>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Sonali Singh</t>
+          <t>Sasi Kiran Boyapati</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Doctor's Dissertation</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+          <t>Special Topics in Computer Science: Intro to Quantum Computing</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>8:00am-9:20am</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Holden Hall</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>8000-14</t>
+          <t>5384-1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Victor Sheng</t>
+          <t>Muhammad Ikram</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Xin Zhang (DGSA)</t>
+          <t xml:space="preserve">Nabonita Mitra </t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Doctor's Dissertation</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+          <t>Logic for Computer Scientists</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>MWF</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5:00pm-5:50pm</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>T Fuller Petr Eng Research</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>8000-12</t>
+          <t>3361-1</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Tara Salman</t>
+          <t>Eric Rees</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Samin Dehbashi Sani</t>
+          <t>Susmitha Reddy Bodam</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Doctor's Dissertation</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+          <t>Concepts of Programming Languages</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>MWF</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>10:00am-10:50am</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Electrical &amp; Computer Eng</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>5331-4</t>
+          <t>5375-1</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Tianxi Ji</t>
+          <t>Yu Zhuang</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Rukayat Olapojoye</t>
+          <t>Gaoxiang Li</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Special Problems in Computer Science: Security: Security &amp; Privacy in AI &amp; ML</t>
+          <t>Computer Systems Organization and Architecture</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -668,7 +696,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>8:00am-8:50am</t>
+          <t>3:00pm-3:50pm</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -683,31 +711,45 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>8000-19</t>
+          <t>4366-1</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Yuanlin Zhang</t>
+          <t>Victor Sheng</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Kwesi Danso (half RA half TA)</t>
+          <t>Sai Sharanya Yellampalli</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Doctor's Dissertation</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+          <t>Senior Capstone Project</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>12:30pm-1:50pm</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>T Fuller Petr Eng Research</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -741,50 +783,36 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4379-1</t>
+          <t>8000-20</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Eric Rees</t>
+          <t>Yu Zhuang</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Rohit Viswakarma Pidishetti</t>
+          <t>Juan Marcelo Gutierrez Carballo</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Parallel and Concurrent Programming</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>MWF</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>12:00pm-12:50pm</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Electrical &amp; Computer Eng</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>101</v>
-      </c>
+          <t>Doctor's Dissertation</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3368-1</t>
+          <t>5000-1</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -792,42 +820,28 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Stas Tiomkin</t>
+          <t>Yuanlin Zhang</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Seyed Soroush Tabadkani Avval</t>
+          <t>Imran Pinjari (DGSA)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Introduction to Artificial Intelligence</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>MWF</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>1:00pm-1:50pm</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Livermore Center</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
-        <v>101</v>
-      </c>
+          <t>Practicum of Computing</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3383-1</t>
+          <t>4379-1</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -835,32 +849,32 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Lu Wei</t>
+          <t>Eric Rees</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Joshika Geddam</t>
+          <t>Rohit Viswakarma Pidishetti</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Theory of Automata</t>
+          <t>Parallel and Concurrent Programming</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MWF</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>11:00am-12:20pm</t>
+          <t>12:00pm-12:50pm</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Livermore Center</t>
+          <t>Electrical &amp; Computer Eng</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -870,79 +884,79 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>7000-2</t>
+          <t>5381-1</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Tommy Dang</t>
+          <t>Uma Chinta Chinta</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Phornsawan Roemsri</t>
+          <t>Linpeng Sun</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Research:</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+          <t>Analysis of Algorithms</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>MWF</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>4:00pm-4:50pm</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>T Fuller Petr Eng Research</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>5381-1</t>
+          <t>8000-19</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Uma Chinta Chinta</t>
+          <t>Yuanlin Zhang</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Linpeng Sun</t>
+          <t>Kwesi Danso (half RA half TA)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Analysis of Algorithms</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>MWF</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>4:00pm-4:50pm</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>T Fuller Petr Eng Research</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
-        <v>110</v>
-      </c>
+          <t>Doctor's Dissertation</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>5340-1</t>
+          <t>3364-1</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -950,17 +964,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Abdul Serwadda</t>
+          <t>Uma Chinta Chinta</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Muhammad Aziz Ullah</t>
+          <t>Zhenyu Xu</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Introduction to Information and Computer Security</t>
+          <t>Design and Analysis of Algorithms</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -979,31 +993,31 @@
         </is>
       </c>
       <c r="I15" t="n">
-        <v>110</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>6000-10</t>
+          <t>7000-22</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Tara Salman</t>
+          <t>Uma Chinta Chinta</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Amir Faiyaz (DGSA)</t>
+          <t>Md Mahabub Uz Zaman</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Master's Thesis</t>
+          <t>Research</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
@@ -1014,68 +1028,54 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3364-1</t>
+          <t>7000-11</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Uma Chinta Chinta</t>
+          <t>Abdul Serwadda</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Zhenyu Xu</t>
+          <t>Hasan Alqudah</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Design and Analysis of Algorithms</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>MWF</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>9:00am-9:50am</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>T Fuller Petr Eng Research</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
-        <v>208</v>
-      </c>
+          <t>Research:</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>8000-18</t>
+          <t>6001-7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Zihao Zhan</t>
+          <t>Susan Mengel</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Liyuan Gao (DGSA)</t>
+          <t>Divya Sree Vemula</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Doctor's Dissertation</t>
+          <t>Master's Project</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -1086,40 +1086,40 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4352-1</t>
+          <t>3350-2</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Jingjing Yao</t>
+          <t>Mustafa Alam</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Dinesh Bobburu</t>
+          <t>Farzana Fariha</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Operating Systems</t>
+          <t>Computer Organization and Assembly Language Programming</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MWF</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>8:00am-9:20am</t>
+          <t>8:00am-8:50am</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Electrical &amp; Computer Eng</t>
+          <t>Livermore Center</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -1129,140 +1129,120 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4392-1</t>
+          <t>7000-20</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Song Liao</t>
+          <t>Yu Zhuang</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Kattula Vaishnavi</t>
+          <t>Pallavi Zambare (DGSA)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Computer Networks</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>MWF</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>9:00am-9:50am</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Holden Hall</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
-        <v>150</v>
-      </c>
+          <t>Research:</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3350-2</t>
+          <t>2413-1</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Mustafa Alam</t>
+          <t>Susan Mengel</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Farzana Fariha</t>
+          <t>Anurag Nandyala</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Computer Organization and Assembly Language Programming</t>
+          <t>Data Structures</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>MWF</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>8:00am-8:50am</t>
+          <t>11:00am-12:20pm</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Livermore Center</t>
+          <t>Mechanical Engineering North</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>101</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>5384-1</t>
+          <t>2413-501</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>501</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Muhammad Ikram</t>
+          <t>Susan Mengel</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nabonita Mitra </t>
+          <t>Anurag Nandyala</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Logic for Computer Scientists</t>
+          <t>Data Structures: Lab</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>MWF</t>
+          <t>T</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>5:00pm-5:50pm</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>T Fuller Petr Eng Research</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
-        <v>110</v>
-      </c>
+          <t>8:00am-10:50am</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2413-1</t>
+          <t>2413-502</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>502</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1276,36 +1256,30 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Data Structures</t>
+          <t>Data Structures: Lab</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>R</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>11:00am-12:20pm</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Mechanical Engineering North</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
-        <v>132</v>
-      </c>
+          <t>8:00am-10:50am</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2413-501</t>
+          <t>2413-503</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1324,12 +1298,12 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>R</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>8:00am-10:50am</t>
+          <t>2:00pm-4:50pm</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
@@ -1338,124 +1312,108 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2413-502</t>
+          <t>5331-4</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>502</v>
+        <v>4</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Susan Mengel</t>
+          <t>Tianxi Ji</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Anurag Nandyala</t>
+          <t>Rukayat Olapojoye</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Data Structures: Lab</t>
+          <t>Special Problems in Computer Science: Security: Security &amp; Privacy in AI &amp; ML</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>MWF</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>8:00am-10:50am</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
+          <t>8:00am-8:50am</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>T Fuller Petr Eng Research</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2413-503</t>
+          <t>7000-19</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>503</v>
+        <v>19</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Susan Mengel</t>
+          <t>Yuanlin Zhang</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Anurag Nandyala</t>
+          <t>Joshua Archer</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Data Structures: Lab</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>2:00pm-4:50pm</t>
-        </is>
-      </c>
+          <t>Research:</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>4366-1</t>
+          <t>6001-11</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Victor Sheng</t>
+          <t>Abdul Serwadda</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Sai Sharanya Yellampalli</t>
+          <t>Denish Otieno</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Senior Capstone Project</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>12:30pm-1:50pm</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>T Fuller Petr Eng Research</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
-        <v>110</v>
-      </c>
+          <t>Master's Project</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5375-1</t>
+          <t>5340-1</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1463,17 +1421,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Yu Zhuang</t>
+          <t>Abdul Serwadda</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Gaoxiang Li</t>
+          <t>Muhammad Aziz Ullah</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Computer Systems Organization and Architecture</t>
+          <t>Introduction to Information and Computer Security</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1483,7 +1441,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>3:00pm-3:50pm</t>
+          <t>9:00am-9:50am</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1498,25 +1456,25 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>6001-7</t>
+          <t>7000-12</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Susan Mengel</t>
+          <t>Victor Sheng</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Divya Sree Vemula</t>
+          <t>Ruoyu Xu</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Master's Project</t>
+          <t>Research:</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -1527,54 +1485,68 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>8000-9</t>
+          <t>4392-1</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Susan Mengel</t>
+          <t>Song Liao</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Ban Tran (DGSA)</t>
+          <t>Kattula Vaishnavi</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Doctor's Dissertation</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
+          <t>Computer Networks</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>MWF</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>9:00am-9:50am</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Holden Hall</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>7000-22</t>
+          <t>8000-15</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Uma Chinta Chinta</t>
+          <t>Eonsuk Shin</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Md Mahabub Uz Zaman</t>
+          <t>Usha Raman Adapa (DGSA)</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Research</t>
+          <t>Doctor's Dissertation</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -1585,25 +1557,25 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5000-1</t>
+          <t>8000-9</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Yuanlin Zhang</t>
+          <t>Susan Mengel</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Imran Pinjari (DGSA)</t>
+          <t>Ban Tran (DGSA)</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Practicum of Computing</t>
+          <t>Doctor's Dissertation</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -1614,20 +1586,20 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>8000-16</t>
+          <t>8000-5</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Akbar Siami Namin</t>
+          <t>Lu Wei</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Namgyu Han</t>
+          <t>Linfeng Wei</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1643,25 +1615,25 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>7000-12</t>
+          <t>8000-3</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Victor Sheng</t>
+          <t>Jingjing Yao</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Ruoyu Xu</t>
+          <t>Rakib Hossain Rifat (DGSA)</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Research:</t>
+          <t>Doctor's Dissertation</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
@@ -1672,49 +1644,63 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>7000-20</t>
+          <t>4352-1</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Yu Zhuang</t>
+          <t>Jingjing Yao</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Pallavi Zambare (DGSA)</t>
+          <t>Dinesh Bobburu</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Research:</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
+          <t>Operating Systems</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>8:00am-9:20am</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Electrical &amp; Computer Eng</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>7000-11</t>
+          <t>7000-2</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Abdul Serwadda</t>
+          <t>Tommy Dang</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Hasan Alqudah</t>
+          <t>Phornsawan Roemsri</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1730,54 +1716,68 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>8000-3</t>
+          <t>3383-1</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Jingjing Yao</t>
+          <t>Lu Wei</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Rakib Hossain Rifat (DGSA)</t>
+          <t>Joshika Geddam</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Doctor's Dissertation</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
+          <t>Theory of Automata</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>11:00am-12:20pm</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Livermore Center</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>7000-19</t>
+          <t>6000-10</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Yuanlin Zhang</t>
+          <t>Tara Salman</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Joshua Archer</t>
+          <t>Amir Faiyaz (DGSA)</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Research:</t>
+          <t>Master's Thesis</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -1788,92 +1788,92 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>6001-11</t>
+          <t>3368-1</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Abdul Serwadda</t>
+          <t>Stas Tiomkin</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Denish Otieno</t>
+          <t>Seyed Soroush Tabadkani Avval</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Master's Project</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
+          <t>Introduction to Artificial Intelligence</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>MWF</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>1:00pm-1:50pm</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Livermore Center</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>3361-1</t>
+          <t>8000-12</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Eric Rees</t>
+          <t>Tara Salman</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Susmitha Reddy Bodam</t>
+          <t>Samin Dehbashi Sani</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Concepts of Programming Languages</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>MWF</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>10:00am-10:50am</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Electrical &amp; Computer Eng</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
-        <v>101</v>
-      </c>
+          <t>Doctor's Dissertation</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>8000-5</t>
+          <t>8000-18</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Lu Wei</t>
+          <t>Zihao Zhan</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Linfeng Wei</t>
+          <t>Liyuan Gao (DGSA)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1889,20 +1889,20 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>8000-15</t>
+          <t>8000-16</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Eonsuk Shin</t>
+          <t>Akbar Siami Namin</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Usha Raman Adapa (DGSA)</t>
+          <t>Namgyu Han</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1984,49 +1984,63 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>8000-18</t>
+          <t>4392-1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Zihao Zhan</t>
+          <t>Song Liao</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Sonali Singh</t>
+          <t>Rohit Viswakarma Pidishetti</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Doctor's Dissertation</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+          <t>Computer Networks</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>MWF</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9:00am-9:50am</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Holden Hall</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6001-7</t>
+          <t>6001-10</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Susan Mengel</t>
+          <t>Tara Salman</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Ban Tran (DGSA)</t>
+          <t>Samin Dehbashi Sani</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -2042,212 +2056,198 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>8000-16</t>
+          <t>5375-1</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Akbar Siami Namin</t>
+          <t>Yu Zhuang</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Usha Raman Adapa (DGSA)</t>
+          <t xml:space="preserve">Nabonita Mitra </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Doctor's Dissertation</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+          <t>Computer Systems Organization and Architecture</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>MWF</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3:00pm-3:50pm</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>T Fuller Petr Eng Research</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3383-1</t>
+          <t>7000-18</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Lu Wei</t>
+          <t>Zihao Zhan</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Dinesh Bobburu</t>
+          <t>Joshua Archer</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Theory of Automata</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>11:00am-12:20pm</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Livermore Center</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>101</v>
-      </c>
+          <t>Research:</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>8000-13</t>
+          <t>5388-1</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Abdul Serwadda</t>
+          <t>Scott Franklin</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Muhammad Aziz Ullah</t>
+          <t>Seyed Soroush Tabadkani Avval</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Doctor's Dissertation</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+          <t>Neural Networks</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>MWF</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2:00pm-2:50pm</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>T Fuller Petr Eng Research</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>5331-4</t>
+          <t>8000-18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Tianxi Ji</t>
+          <t>Zihao Zhan</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Zhenyu Xu</t>
+          <t>Sonali Singh</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Special Problems in Computer Science: Security: Security &amp; Privacy in AI &amp; ML</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>MWF</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>8:00am-8:50am</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>T Fuller Petr Eng Research</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>110</v>
-      </c>
+          <t>Doctor's Dissertation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4379-1</t>
+          <t>7000-22</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Eric Rees</t>
+          <t>Uma Chinta Chinta</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Kattula Vaishnavi</t>
+          <t>Pallavi Zambare (DGSA)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Parallel and Concurrent Programming</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>MWF</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>12:00pm-12:50pm</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Electrical &amp; Computer Eng</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>101</v>
-      </c>
+          <t>Research</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>7000-11</t>
+          <t>6001-16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Abdul Serwadda</t>
+          <t>Lu Wei</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Denish Otieno</t>
+          <t>Linfeng Wei</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Research:</t>
+          <t>Master's Project</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -2258,25 +2258,25 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>8000-9</t>
+          <t>6001-2</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Susan Mengel</t>
+          <t>Tommy Dang</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Divya Sree Vemula</t>
+          <t>Phornsawan Roemsri</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Doctor's Dissertation</t>
+          <t>Master's Project</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -2287,63 +2287,49 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>5340-1</t>
+          <t>8000-20</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Abdul Serwadda</t>
+          <t>Yu Zhuang</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Rukayat Olapojoye</t>
+          <t>Liyuan Gao (DGSA)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Introduction to Information and Computer Security</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>MWF</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>9:00am-9:50am</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>T Fuller Petr Eng Research</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
-        <v>110</v>
-      </c>
+          <t>Doctor's Dissertation</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>8000-19</t>
+          <t>8000-16</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Yuanlin Zhang</t>
+          <t>Akbar Siami Namin</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Juan Marcelo Gutierrez Carballo</t>
+          <t>Usha Raman Adapa (DGSA)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -2359,140 +2345,126 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4392-1</t>
+          <t>6001-7</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Song Liao</t>
+          <t>Susan Mengel</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Rohit Viswakarma Pidishetti</t>
+          <t>Ban Tran (DGSA)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Computer Networks</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>MWF</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>9:00am-9:50am</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Holden Hall</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
-        <v>150</v>
-      </c>
+          <t>Master's Project</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>5388-1</t>
+          <t>8000-12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Scott Franklin</t>
+          <t>Tara Salman</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Seyed Soroush Tabadkani Avval</t>
+          <t>Amir Faiyaz (DGSA)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Neural Networks</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>MWF</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>2:00pm-2:50pm</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>T Fuller Petr Eng Research</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
-        <v>110</v>
-      </c>
+          <t>Doctor's Dissertation</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>8000-17</t>
+          <t>1382-1</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Stas Tiomkin</t>
+          <t>Scott Franklin</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Namgyu Han</t>
+          <t>Sasi Kiran Boyapati</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Doctor's Dissertation</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+          <t>Discrete Computational Structures</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>MWF</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>4:00pm-4:50pm</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Electrical &amp; Computer Eng</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>217</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>8000-20</t>
+          <t>6001-12</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Yu Zhuang</t>
+          <t>Victor Sheng</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Liyuan Gao (DGSA)</t>
+          <t>Ruoyu Xu</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Doctor's Dissertation</t>
+          <t>Master's Project</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
@@ -2503,49 +2475,63 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>6000-12</t>
+          <t>3368-1</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Victor Sheng</t>
+          <t>Stas Tiomkin</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Xin Zhang (DGSA)</t>
+          <t>Sai Sharanya Yellampalli</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Master's Thesis</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>Introduction to Artificial Intelligence</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>MWF</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1:00pm-1:50pm</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Livermore Center</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>6001-2</t>
+          <t>6001-11</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Tommy Dang</t>
+          <t>Abdul Serwadda</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Phornsawan Roemsri</t>
+          <t>Hasan Alqudah</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -2561,169 +2547,173 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>7000-19</t>
+          <t>2413-502</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>19</v>
+        <v>502</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Yuanlin Zhang</t>
+          <t>Susan Mengel</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Kwesi Danso (half RA half TA)</t>
+          <t>Gaoxiang Li</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Research:</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
+          <t>Data Structures: Lab</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>8:00am-10:50am</t>
+        </is>
+      </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3365-1</t>
+          <t>2413-501</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>501</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Don Pathirage</t>
+          <t>Susan Mengel</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Susmitha Reddy Bodam</t>
+          <t>Gaoxiang Li</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Software Engineering</t>
+          <t>Data Structures: Lab</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>MWF</t>
+          <t>T</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>5:00pm-5:50pm</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Indus. Manufac. and Sys. Engr</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
-        <v>121</v>
-      </c>
+          <t>8:00am-10:50am</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>6001-16</t>
+          <t>2413-502</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>16</v>
+        <v>502</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Lu Wei</t>
+          <t>Susan Mengel</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Linfeng Wei</t>
+          <t>Gaoxiang Li</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Master's Project</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
+          <t>Data Structures: Lab</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>8:00am-10:50am</t>
+        </is>
+      </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>5375-1</t>
+          <t>2413-503</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>503</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Yu Zhuang</t>
+          <t>Susan Mengel</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nabonita Mitra </t>
+          <t>Gaoxiang Li</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Computer Systems Organization and Architecture</t>
+          <t>Data Structures: Lab</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>MWF</t>
+          <t>R</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>3:00pm-3:50pm</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>T Fuller Petr Eng Research</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
-        <v>110</v>
-      </c>
+          <t>2:00pm-4:50pm</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>7000-18</t>
+          <t>8000-13</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Zihao Zhan</t>
+          <t>Abdul Serwadda</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Joshua Archer</t>
+          <t>Muhammad Aziz Ullah</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Research:</t>
+          <t>Doctor's Dissertation</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
@@ -2734,504 +2724,548 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2413-503</t>
+          <t>7000-19</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>503</v>
+        <v>19</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Susan Mengel</t>
+          <t>Yuanlin Zhang</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Anurag Nandyala</t>
+          <t>Kwesi Danso (half RA half TA)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Data Structures: Lab</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>2:00pm-4:50pm</t>
-        </is>
-      </c>
+          <t>Research:</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2413-501</t>
+          <t>4352-1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>501</v>
+        <v>1</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Susan Mengel</t>
+          <t>Jingjing Yao</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Anurag Nandyala</t>
+          <t>Joshika Geddam</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Data Structures: Lab</t>
+          <t>Operating Systems</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>8:00am-10:50am</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
+          <t>8:00am-9:20am</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Electrical &amp; Computer Eng</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2413-502</t>
+          <t>6000-12</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>502</v>
+        <v>12</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Susan Mengel</t>
+          <t>Victor Sheng</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Anurag Nandyala</t>
+          <t>Xin Zhang (DGSA)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Data Structures: Lab</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>8:00am-10:50am</t>
-        </is>
-      </c>
+          <t>Master's Thesis</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2413-503</t>
+          <t>8000-17</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>503</v>
+        <v>17</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Susan Mengel</t>
+          <t>Stas Tiomkin</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Anurag Nandyala</t>
+          <t>Namgyu Han</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Data Structures: Lab</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>2:00pm-4:50pm</t>
-        </is>
-      </c>
+          <t>Doctor's Dissertation</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>6001-5</t>
+          <t>3383-1</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Sunho Lim</t>
+          <t>Lu Wei</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Sthephany Rojas</t>
+          <t>Dinesh Bobburu</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Master's Project</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
+          <t>Theory of Automata</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>11:00am-12:20pm</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Livermore Center</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3368-1</t>
+          <t>4331-4</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Stas Tiomkin</t>
-        </is>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Sai Sharanya Yellampalli</t>
+          <t>Farzana Fariha</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Introduction to Artificial Intelligence</t>
+          <t>Special Topics in Computer Science: Intro to Quantum Computing</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>MWF</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>1:00pm-1:50pm</t>
+          <t>8:00am-9:20am</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Livermore Center</t>
+          <t>Holden Hall</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>101</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>6001-11</t>
+          <t>5331-4</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Abdul Serwadda</t>
+          <t>Tianxi Ji</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Hasan Alqudah</t>
+          <t>Zhenyu Xu</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Master's Project</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
+          <t>Special Problems in Computer Science: Security: Security &amp; Privacy in AI &amp; ML</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>MWF</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>8:00am-8:50am</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>T Fuller Petr Eng Research</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>7000-17</t>
+          <t>5340-1</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Jingjing Yao</t>
+          <t>Abdul Serwadda</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Rakib Hossain Rifat (DGSA)</t>
+          <t>Rukayat Olapojoye</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Research:</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
+          <t>Introduction to Information and Computer Security</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>MWF</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>9:00am-9:50am</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>T Fuller Petr Eng Research</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>6001-10</t>
+          <t>4379-1</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Tara Salman</t>
+          <t>Eric Rees</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Samin Dehbashi Sani</t>
+          <t>Kattula Vaishnavi</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Master's Project</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
+          <t>Parallel and Concurrent Programming</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>MWF</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>12:00pm-12:50pm</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Electrical &amp; Computer Eng</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2413-502</t>
+          <t>5383-1</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>502</v>
+        <v>1</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Susan Mengel</t>
+          <t>Yuanlin Zhang</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Gaoxiang Li</t>
+          <t>Imran Pinjari (DGSA)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Data Structures: Lab</t>
+          <t>Theory of Automata</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>8:00am-10:50am</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
+          <t>2:00pm-3:20pm</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>T Fuller Petr Eng Research</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2413-501</t>
+          <t>7000-11</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>501</v>
+        <v>11</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Susan Mengel</t>
+          <t>Abdul Serwadda</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Gaoxiang Li</t>
+          <t>Denish Otieno</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Data Structures: Lab</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>8:00am-10:50am</t>
-        </is>
-      </c>
+          <t>Research:</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2413-502</t>
+          <t>5368-1</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>502</v>
+        <v>1</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Susan Mengel</t>
+          <t>Yuanlin Zhang</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Gaoxiang Li</t>
+          <t>Linpeng Sun</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Data Structures: Lab</t>
+          <t>Intelligent Systems</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>8:00am-10:50am</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
+          <t>5:00pm-6:20pm</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Livermore Center</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2413-503</t>
+          <t>7000-17</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>503</v>
+        <v>17</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Susan Mengel</t>
+          <t>Jingjing Yao</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Gaoxiang Li</t>
+          <t>Rakib Hossain Rifat (DGSA)</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Data Structures: Lab</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>2:00pm-4:50pm</t>
-        </is>
-      </c>
+          <t>Research:</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>7000-22</t>
+          <t>3365-1</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Uma Chinta Chinta</t>
+          <t>Don Pathirage</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Pallavi Zambare (DGSA)</t>
+          <t>Susmitha Reddy Bodam</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Research</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
+          <t>Software Engineering</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>MWF</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>5:00pm-5:50pm</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Indus. Manufac. and Sys. Engr</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>121</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>6001-12</t>
+          <t>6001-5</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Victor Sheng</t>
+          <t>Sunho Lim</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Ruoyu Xu</t>
+          <t>Sthephany Rojas</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -3247,25 +3281,25 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>7000-20</t>
+          <t>8000-9</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Yu Zhuang</t>
+          <t>Susan Mengel</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Md Mahabub Uz Zaman</t>
+          <t>Divya Sree Vemula</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Research:</t>
+          <t>Doctor's Dissertation</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
@@ -3276,242 +3310,208 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>4331-4</t>
+          <t>7000-20</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4</v>
-      </c>
-      <c r="C40" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Yu Zhuang</t>
+        </is>
+      </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Farzana Fariha</t>
+          <t>Md Mahabub Uz Zaman</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Special Topics in Computer Science: Intro to Quantum Computing</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>8:00am-9:20am</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Holden Hall</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
-        <v>33</v>
-      </c>
+          <t>Research:</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>4352-1</t>
+          <t>2413-503</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>503</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Jingjing Yao</t>
+          <t>Susan Mengel</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Joshika Geddam</t>
+          <t>Anurag Nandyala</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Operating Systems</t>
+          <t>Data Structures: Lab</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>R</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>8:00am-9:20am</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Electrical &amp; Computer Eng</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
-        <v>101</v>
-      </c>
+          <t>2:00pm-4:50pm</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>5383-1</t>
+          <t>2413-501</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>501</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Yuanlin Zhang</t>
+          <t>Susan Mengel</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Imran Pinjari (DGSA)</t>
+          <t>Anurag Nandyala</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Theory of Automata</t>
+          <t>Data Structures: Lab</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>T</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2:00pm-3:20pm</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>T Fuller Petr Eng Research</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
-        <v>110</v>
-      </c>
+          <t>8:00am-10:50am</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>8000-12</t>
+          <t>2413-502</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>12</v>
+        <v>502</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Tara Salman</t>
+          <t>Susan Mengel</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Amir Faiyaz (DGSA)</t>
+          <t>Anurag Nandyala</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Doctor's Dissertation</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
+          <t>Data Structures: Lab</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>8:00am-10:50am</t>
+        </is>
+      </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>5368-1</t>
+          <t>2413-503</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>503</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Yuanlin Zhang</t>
+          <t>Susan Mengel</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Linpeng Sun</t>
+          <t>Anurag Nandyala</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Intelligent Systems</t>
+          <t>Data Structures: Lab</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>R</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>5:00pm-6:20pm</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Livermore Center</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
-        <v>101</v>
-      </c>
+          <t>2:00pm-4:50pm</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1382-1</t>
+          <t>8000-19</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Scott Franklin</t>
+          <t>Yuanlin Zhang</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Sasi Kiran Boyapati</t>
+          <t>Juan Marcelo Gutierrez Carballo</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Discrete Computational Structures</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>MWF</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>4:00pm-4:50pm</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Electrical &amp; Computer Eng</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
-        <v>217</v>
-      </c>
+          <t>Doctor's Dissertation</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3582,54 +3582,48 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>5340-1</t>
+          <t>2413-502</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>502</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Abdul Serwadda</t>
+          <t>Susan Mengel</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Denish Otieno</t>
+          <t>Anurag Nandyala</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Introduction to Information and Computer Security</t>
+          <t>Data Structures: Lab</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MWF</t>
+          <t>R</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>9:00am-9:50am</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>T Fuller Petr Eng Research</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>110</v>
-      </c>
+          <t>8:00am-10:50am</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2413-1</t>
+          <t>2413-501</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>501</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -3638,41 +3632,35 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Ban Tran (DGSA)</t>
+          <t>Anurag Nandyala</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Data Structures</t>
+          <t>Data Structures: Lab</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>T</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>11:00am-12:20pm</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Mechanical Engineering North</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>132</v>
-      </c>
+          <t>8:00am-10:50am</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2413-501</t>
+          <t>2413-502</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -3681,7 +3669,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Ban Tran (DGSA)</t>
+          <t>Anurag Nandyala</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -3691,7 +3679,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>R</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -3705,11 +3693,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2413-502</t>
+          <t>2413-503</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -3718,7 +3706,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Ban Tran (DGSA)</t>
+          <t>Anurag Nandyala</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -3733,7 +3721,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>8:00am-10:50am</t>
+          <t>2:00pm-4:50pm</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
@@ -3742,235 +3730,241 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2413-503</t>
+          <t>6000-12</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>503</v>
+        <v>12</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Susan Mengel</t>
+          <t>Victor Sheng</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Ban Tran (DGSA)</t>
+          <t>Ruoyu Xu</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Data Structures: Lab</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>2:00pm-4:50pm</t>
-        </is>
-      </c>
+          <t>Master's Thesis</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4379-1</t>
+          <t>6000-5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Eric Rees</t>
+          <t>Sunho Lim</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Sasi Kiran Boyapati</t>
+          <t>Sthephany Rojas</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Parallel and Concurrent Programming</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>MWF</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>12:00pm-12:50pm</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Electrical &amp; Computer Eng</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>101</v>
-      </c>
+          <t>Master's Thesis</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6000-16</t>
+          <t>1382-2</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Lu Wei</t>
+          <t>Scott Franklin</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Linfeng Wei</t>
+          <t>Kattula Vaishnavi</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Master's Thesis</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+          <t>Discrete Computational Structures</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>MWF</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>10:00am-10:50am</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Livermore Center</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6000-10</t>
+          <t>3365-2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Tara Salman</t>
+          <t>Maaz Amjad</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Samin Dehbashi Sani</t>
+          <t>Joshika Geddam</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Master's Thesis</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+          <t>Software Engineering</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>MWF</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>12:00pm-12:50pm</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Livermore Center</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4366-1</t>
+          <t>8000-20</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Victor Sheng</t>
+          <t>Yu Zhuang</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Rohit Viswakarma Pidishetti</t>
+          <t>Namgyu Han</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Senior Capstone Project</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>12:30pm-1:50pm</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>T Fuller Petr Eng Research</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>110</v>
-      </c>
+          <t>Doctor's Dissertation</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>6001-19</t>
+          <t>3361-1</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Yuanlin Zhang</t>
+          <t>Eric Rees</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Kwesi Danso (half RA half TA)</t>
+          <t>Dinesh Bobburu</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Master's Project</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+          <t>Concepts of Programming Languages</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>MWF</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>10:00am-10:50am</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Electrical &amp; Computer Eng</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>6001-11</t>
+          <t>6000-2</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Abdul Serwadda</t>
+          <t>Tommy Dang</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Muhammad Aziz Ullah</t>
+          <t>Phornsawan Roemsri</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Master's Project</t>
+          <t>Master's Thesis</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
@@ -3981,25 +3975,25 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>6001-12</t>
+          <t>8000-19</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Victor Sheng</t>
+          <t>Yuanlin Zhang</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Xin Zhang (DGSA)</t>
+          <t>Liyuan Gao (DGSA)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Master's Project</t>
+          <t>Doctor's Dissertation</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -4010,25 +4004,25 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>8000-16</t>
+          <t>6000-7</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Akbar Siami Namin</t>
+          <t>Susan Mengel</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Sonali Singh</t>
+          <t>Divya Sree Vemula</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Doctor's Dissertation</t>
+          <t>Master's Thesis</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -4039,117 +4033,103 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>3361-1</t>
+          <t>8000-16</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Eric Rees</t>
+          <t>Akbar Siami Namin</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Dinesh Bobburu</t>
+          <t>Sonali Singh</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Concepts of Programming Languages</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>MWF</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>10:00am-10:50am</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Electrical &amp; Computer Eng</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
-        <v>101</v>
-      </c>
+          <t>Doctor's Dissertation</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3365-2</t>
+          <t>6001-11</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Maaz Amjad</t>
+          <t>Abdul Serwadda</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Joshika Geddam</t>
+          <t>Muhammad Aziz Ullah</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Software Engineering</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>MWF</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>12:00pm-12:50pm</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Livermore Center</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
-        <v>101</v>
-      </c>
+          <t>Master's Project</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>6001-10</t>
+          <t>5120-1</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Tara Salman</t>
+          <t>Stas Tiomkin</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Amir Faiyaz (DGSA)</t>
+          <t>Imran Pinjari (DGSA)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Master's Project</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>Computer Science Graduate Seminar</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>3:30pm-4:50pm</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Holden Hall</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>104</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4302,166 +4282,208 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>7000-22</t>
+          <t>5368-1</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Uma Chinta Chinta</t>
+          <t>Yuanlin Zhang</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nabonita Mitra </t>
+          <t>Seyed Soroush Tabadkani Avval</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Research</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
+          <t>Intelligent Systems</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>5:00pm-6:20pm</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Livermore Center</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>6000-2</t>
+          <t>4366-1</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Tommy Dang</t>
+          <t>Victor Sheng</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Phornsawan Roemsri</t>
+          <t>Rohit Viswakarma Pidishetti</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Master's Thesis</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
+          <t>Senior Capstone Project</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>12:30pm-1:50pm</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>T Fuller Petr Eng Research</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>8000-20</t>
+          <t>4379-1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Yu Zhuang</t>
+          <t>Eric Rees</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Namgyu Han</t>
+          <t>Sasi Kiran Boyapati</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Doctor's Dissertation</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
+          <t>Parallel and Concurrent Programming</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>MWF</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>12:00pm-12:50pm</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Electrical &amp; Computer Eng</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>7000-18</t>
+          <t>5388-1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Zihao Zhan</t>
+          <t>Scott Franklin</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Pallavi Zambare (DGSA)</t>
+          <t>Linpeng Sun</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Research:</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
+          <t>Neural Networks</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>MWF</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2:00pm-2:50pm</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>T Fuller Petr Eng Research</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>3365-1</t>
+          <t>6001-17</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Don Pathirage</t>
+          <t>Jingjing Yao</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Zhenyu Xu</t>
+          <t>Rakib Hossain Rifat (DGSA)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Software Engineering</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>MWF</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>5:00pm-5:50pm</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Indus. Manufac. and Sys. Engr</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
-        <v>121</v>
-      </c>
+          <t>Master's Project</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5368-1</t>
+          <t>3365-1</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -4469,132 +4491,132 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Yuanlin Zhang</t>
+          <t>Don Pathirage</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Seyed Soroush Tabadkani Avval</t>
+          <t>Zhenyu Xu</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Intelligent Systems</t>
+          <t>Software Engineering</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>MWF</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>5:00pm-6:20pm</t>
+          <t>5:00pm-5:50pm</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Livermore Center</t>
+          <t>Indus. Manufac. and Sys. Engr</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>101</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>8000-19</t>
+          <t>4354-1</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Yuanlin Zhang</t>
+          <t>Tara Salman</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Liyuan Gao (DGSA)</t>
+          <t>Susmitha Reddy Bodam</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Doctor's Dissertation</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
+          <t>Concepts of Database Systems</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>TR</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>5:00pm-6:20pm</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Electrical &amp; Computer Eng</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>5341-1</t>
+          <t>7000-22</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Maaz Amjad</t>
+          <t>Uma Chinta Chinta</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Rukayat Olapojoye</t>
+          <t xml:space="preserve">Nabonita Mitra </t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Pattern Recognition</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>MWF</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>10:00am-10:50am</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>T Fuller Petr Eng Research</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
-        <v>110</v>
-      </c>
+          <t>Research</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>6000-7</t>
+          <t>7000-19</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Susan Mengel</t>
+          <t>Yuanlin Zhang</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Divya Sree Vemula</t>
+          <t>Md Mahabub Uz Zaman</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Master's Thesis</t>
+          <t>Research:</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -4648,25 +4670,25 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>8000-17</t>
+          <t>6000-11</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Stas Tiomkin</t>
+          <t>Abdul Serwadda</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Usha Raman Adapa (DGSA)</t>
+          <t>Hasan Alqudah</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Doctor's Dissertation</t>
+          <t>Master's Thesis</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -4677,7 +4699,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5120-1</t>
+          <t>4392-1</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -4685,27 +4707,27 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Stas Tiomkin</t>
+          <t>Song Liao</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Imran Pinjari (DGSA)</t>
+          <t>Sai Sharanya Yellampalli</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Computer Science Graduate Seminar</t>
+          <t>Computer Networks</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>MWF</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>3:30pm-4:50pm</t>
+          <t>9:00am-9:50am</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -4714,31 +4736,31 @@
         </is>
       </c>
       <c r="I33" t="n">
-        <v>104</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1382-2</t>
+          <t>5341-1</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Scott Franklin</t>
+          <t>Maaz Amjad</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Kattula Vaishnavi</t>
+          <t>Rukayat Olapojoye</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Discrete Computational Structures</t>
+          <t>Pattern Recognition</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -4753,35 +4775,35 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Livermore Center</t>
+          <t>T Fuller Petr Eng Research</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>7000-19</t>
+          <t>8000-18</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Yuanlin Zhang</t>
+          <t>Zihao Zhan</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Md Mahabub Uz Zaman</t>
+          <t>Juan Marcelo Gutierrez Carballo</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Research:</t>
+          <t>Doctor's Dissertation</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -4792,106 +4814,78 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>4354-1</t>
+          <t>7000-18</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Tara Salman</t>
+          <t>Zihao Zhan</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Susmitha Reddy Bodam</t>
+          <t>Pallavi Zambare (DGSA)</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Concepts of Database Systems</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>5:00pm-6:20pm</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Electrical &amp; Computer Eng</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
-        <v>101</v>
-      </c>
+          <t>Research:</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>5388-1</t>
+          <t>6001-10</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Scott Franklin</t>
+          <t>Tara Salman</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Linpeng Sun</t>
+          <t>Amir Faiyaz (DGSA)</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Neural Networks</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>MWF</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>2:00pm-2:50pm</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>T Fuller Petr Eng Research</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
-        <v>110</v>
-      </c>
+          <t>Master's Project</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>6000-5</t>
+          <t>6000-16</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Sunho Lim</t>
+          <t>Lu Wei</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Sthephany Rojas</t>
+          <t>Linfeng Wei</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -4907,68 +4901,54 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>4392-1</t>
+          <t>6000-10</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Song Liao</t>
+          <t>Tara Salman</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Sai Sharanya Yellampalli</t>
+          <t>Samin Dehbashi Sani</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Computer Networks</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>MWF</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>9:00am-9:50am</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Holden Hall</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
-        <v>150</v>
-      </c>
+          <t>Master's Thesis</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>6000-11</t>
+          <t>6001-12</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Abdul Serwadda</t>
+          <t>Victor Sheng</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Hasan Alqudah</t>
+          <t>Xin Zhang (DGSA)</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Master's Thesis</t>
+          <t>Master's Project</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
@@ -4979,48 +4959,40 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2413-502</t>
+          <t>6001-19</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>502</v>
+        <v>19</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Susan Mengel</t>
+          <t>Yuanlin Zhang</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Anurag Nandyala</t>
+          <t>Kwesi Danso (half RA half TA)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Data Structures: Lab</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>8:00am-10:50am</t>
-        </is>
-      </c>
+          <t>Master's Project</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2413-501</t>
+          <t>2413-1</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>501</v>
+        <v>1</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5029,35 +5001,41 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Anurag Nandyala</t>
+          <t>Ban Tran (DGSA)</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Data Structures: Lab</t>
+          <t>Data Structures</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>8:00am-10:50am</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
+          <t>11:00am-12:20pm</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Mechanical Engineering North</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>132</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2413-502</t>
+          <t>2413-501</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5066,7 +5044,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Anurag Nandyala</t>
+          <t>Ban Tran (DGSA)</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -5076,7 +5054,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>T</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -5090,11 +5068,11 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2413-503</t>
+          <t>2413-502</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5103,7 +5081,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Anurag Nandyala</t>
+          <t>Ban Tran (DGSA)</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -5118,7 +5096,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2:00pm-4:50pm</t>
+          <t>8:00am-10:50am</t>
         </is>
       </c>
       <c r="H44" t="inlineStr"/>
@@ -5127,83 +5105,105 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>7000-20</t>
+          <t>2413-503</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>20</v>
+        <v>503</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Yu Zhuang</t>
+          <t>Susan Mengel</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Joshua Archer</t>
+          <t>Ban Tran (DGSA)</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Research:</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
+          <t>Data Structures: Lab</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>2:00pm-4:50pm</t>
+        </is>
+      </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>6001-17</t>
+          <t>5340-1</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Jingjing Yao</t>
+          <t>Abdul Serwadda</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Rakib Hossain Rifat (DGSA)</t>
+          <t>Denish Otieno</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Master's Project</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
+          <t>Introduction to Information and Computer Security</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>MWF</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>9:00am-9:50am</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>T Fuller Petr Eng Research</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>8000-18</t>
+          <t>7000-20</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Zihao Zhan</t>
+          <t>Yu Zhuang</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Juan Marcelo Gutierrez Carballo</t>
+          <t>Joshua Archer</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Doctor's Dissertation</t>
+          <t>Research:</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
@@ -5214,25 +5214,25 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>6000-12</t>
+          <t>8000-17</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Victor Sheng</t>
+          <t>Stas Tiomkin</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Ruoyu Xu</t>
+          <t>Usha Raman Adapa (DGSA)</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Master's Thesis</t>
+          <t>Doctor's Dissertation</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>

--- a/MatchTA_Server/Capstone_Project.xlsx
+++ b/MatchTA_Server/Capstone_Project.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="155">
   <si>
     <t>Course Number</t>
   </si>
@@ -136,7 +136,7 @@
     <t>TA: Joshika Geddam, TA: Farzana Fariha</t>
   </si>
   <si>
-    <t>TA: Gaoxiang Li</t>
+    <t>TA: Anurag Nandyala</t>
   </si>
   <si>
     <t>TA: Joshika Geddam</t>
@@ -166,79 +166,85 @@
     <t>TA: Seyed Soroush Tabadkani Avval, TA: Rohit Viswakarma Pidishetti, TA: Sthephany Rojas</t>
   </si>
   <si>
-    <t>TA: Ban Tran (DGSA), TA: Hasan Alqudah</t>
-  </si>
-  <si>
-    <t>TA: Ban Tran (DGSA), TA: Hasan Alqudah, TA: Imran Pinjari (DGSA)</t>
-  </si>
-  <si>
-    <t>TA: Imran Pinjari (DGSA), TA: Juan Marcelo Gutierrez Carballo, TA: Linpeng Sun</t>
-  </si>
-  <si>
-    <t>TA: Imran Pinjari (DGSA), TA: Juan Marcelo Gutierrez Carballo</t>
+    <t>TA: Amir Faiyaz (DGSA), TA: Ban Tran (DGSA)</t>
+  </si>
+  <si>
+    <t>TA: Amir Faiyaz (DGSA), TA: Ban Tran (DGSA), TA: Hasan Alqudah</t>
+  </si>
+  <si>
+    <t>TA: Linfeng Wei, TA: Amir Faiyaz (DGSA), TA: Ban Tran (DGSA)</t>
+  </si>
+  <si>
+    <t>TA: Sthephany Rojas, TA: Hasan Alqudah</t>
+  </si>
+  <si>
+    <t>TA: Hasan Alqudah</t>
+  </si>
+  <si>
+    <t>TA: Imran Pinjari (DGSA)</t>
+  </si>
+  <si>
+    <t>TA: Rakib Hossain Rifat (DGSA), TA: Imran Pinjari (DGSA), TA: Juan Marcelo Gutierrez Carballo</t>
+  </si>
+  <si>
+    <t>TA: Samin Dehbashi Sani, TA: Imran Pinjari (DGSA), TA: Juan Marcelo Gutierrez Carballo</t>
+  </si>
+  <si>
+    <t>TA: Ruoyu Xu, TA: Xin Zhang (DGSA), TA: Juan Marcelo Gutierrez Carballo</t>
   </si>
   <si>
     <t>TA: Juan Marcelo Gutierrez Carballo</t>
   </si>
   <si>
+    <t>TA: Sthephany Rojas, TA: Linfeng Wei</t>
+  </si>
+  <si>
+    <t>TA: Kwesi Danso (half RA half TA)</t>
+  </si>
+  <si>
+    <t>TA: Linfeng Wei</t>
+  </si>
+  <si>
+    <t>TA: Linfeng Wei, TA: Linpeng Sun</t>
+  </si>
+  <si>
+    <t>TA: Sthephany Rojas</t>
+  </si>
+  <si>
+    <t>TA: Linpeng Sun, TA: Liyuan Gao (DGSA)</t>
+  </si>
+  <si>
+    <t>TA: Rukayat Olapojoye, TA: Zhenyu Xu</t>
+  </si>
+  <si>
     <t>TA: Linpeng Sun</t>
   </si>
   <si>
-    <t>TA: Rakib Hossain Rifat (DGSA), TA: Liyuan Gao (DGSA), TA: Md Mahabub Uz Zaman</t>
-  </si>
-  <si>
-    <t>TA: Samin Dehbashi Sani, TA: Liyuan Gao (DGSA), TA: Md Mahabub Uz Zaman</t>
-  </si>
-  <si>
-    <t>TA: Ruoyu Xu, TA: Xin Zhang (DGSA), TA: Liyuan Gao (DGSA)</t>
-  </si>
-  <si>
-    <t>TA: Liyuan Gao (DGSA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TA: Md Mahabub Uz Zaman, TA: Nabonita Mitra </t>
-  </si>
-  <si>
-    <t>TA: Kwesi Danso (half RA half TA)</t>
-  </si>
-  <si>
-    <t>TA: Linfeng Wei</t>
-  </si>
-  <si>
-    <t>TA: Linfeng Wei, TA: Anurag Nandyala</t>
-  </si>
-  <si>
-    <t>TA: Sthephany Rojas</t>
-  </si>
-  <si>
-    <t>TA: Amir Faiyaz (DGSA), TA: Anurag Nandyala</t>
-  </si>
-  <si>
-    <t>TA: Rukayat Olapojoye, TA: Sthephany Rojas</t>
-  </si>
-  <si>
-    <t>TA: Muhammad Aziz Ullah, TA: Hasan Alqudah</t>
+    <t>TA: Muhammad Aziz Ullah, TA: Denish Otieno</t>
   </si>
   <si>
     <t>TA: Rukayat Olapojoye, TA: Seyed Soroush Tabadkani Avval</t>
   </si>
   <si>
-    <t>TA: Phornsawan Roemsri, TA: Amir Faiyaz (DGSA)</t>
-  </si>
-  <si>
-    <t>TA: Linfeng Wei, TA: Amir Faiyaz (DGSA)</t>
-  </si>
-  <si>
-    <t>TA: Muhammad Aziz Ullah, TA: Anurag Nandyala</t>
-  </si>
-  <si>
-    <t>TA: Gaoxiang Li, TA: Sthephany Rojas</t>
-  </si>
-  <si>
-    <t>TA: Gaoxiang Li, TA: Ban Tran (DGSA)</t>
-  </si>
-  <si>
-    <t>TA: Gaoxiang Li, TA: Linpeng Sun</t>
+    <t>TA: Phornsawan Roemsri, TA: Linpeng Sun</t>
+  </si>
+  <si>
+    <t>TA: Liyuan Gao (DGSA), TA: Md Mahabub Uz Zaman</t>
+  </si>
+  <si>
+    <t>TA: Muhammad Aziz Ullah, TA: Liyuan Gao (DGSA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TA: Gaoxiang Li, TA: Nabonita Mitra </t>
+  </si>
+  <si>
+    <t>TA: Gaoxiang Li, TA: Md Mahabub Uz Zaman</t>
+  </si>
+  <si>
+    <t>TA: Seyed Soroush Tabadkani Avval</t>
+  </si>
+  <si>
+    <t>TA: Gaoxiang Li, TA: Ruoyu Xu</t>
   </si>
   <si>
     <t>TA: Nabonita Mitra , TA: Rukayat Olapojoye</t>
@@ -879,16 +885,16 @@
         <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I2">
         <v>217</v>
@@ -908,16 +914,16 @@
         <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I3">
         <v>101</v>
@@ -937,16 +943,16 @@
         <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I4">
         <v>121</v>
@@ -966,16 +972,16 @@
         <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I5">
         <v>25</v>
@@ -995,16 +1001,16 @@
         <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G6" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H6" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I6">
         <v>120</v>
@@ -1024,16 +1030,16 @@
         <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I7">
         <v>110</v>
@@ -1053,16 +1059,16 @@
         <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H8" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="I8">
         <v>101</v>
@@ -1082,16 +1088,16 @@
         <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F9" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G9" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H9" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="I9">
         <v>101</v>
@@ -1111,16 +1117,16 @@
         <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F10" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G10" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H10" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I10">
         <v>4</v>
@@ -1140,16 +1146,16 @@
         <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F11" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G11" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H11" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I11">
         <v>150</v>
@@ -1169,16 +1175,16 @@
         <v>40</v>
       </c>
       <c r="E12" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G12" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I12">
         <v>132</v>
@@ -1198,16 +1204,16 @@
         <v>41</v>
       </c>
       <c r="E13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F13" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G13" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H13" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I13">
         <v>110</v>
@@ -1227,13 +1233,13 @@
         <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G14" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1250,13 +1256,13 @@
         <v>40</v>
       </c>
       <c r="E15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F15" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G15" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1273,13 +1279,13 @@
         <v>40</v>
       </c>
       <c r="E16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F16" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G16" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1296,13 +1302,13 @@
         <v>41</v>
       </c>
       <c r="E17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F17" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G17" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1319,13 +1325,13 @@
         <v>41</v>
       </c>
       <c r="E18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F18" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G18" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1342,13 +1348,13 @@
         <v>41</v>
       </c>
       <c r="E19" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F19" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G19" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1365,16 +1371,16 @@
         <v>42</v>
       </c>
       <c r="E20" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F20" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G20" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H20" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I20">
         <v>101</v>
@@ -1394,16 +1400,16 @@
         <v>43</v>
       </c>
       <c r="E21" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F21" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G21" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H21" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I21">
         <v>101</v>
@@ -1423,16 +1429,16 @@
         <v>44</v>
       </c>
       <c r="E22" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F22" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H22" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I22">
         <v>101</v>
@@ -1452,16 +1458,16 @@
         <v>45</v>
       </c>
       <c r="E23" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F23" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G23" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H23" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I23">
         <v>121</v>
@@ -1481,16 +1487,16 @@
         <v>46</v>
       </c>
       <c r="E24" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F24" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G24" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H24" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I24">
         <v>208</v>
@@ -1510,16 +1516,16 @@
         <v>47</v>
       </c>
       <c r="E25" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F25" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G25" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H25" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I25">
         <v>226</v>
@@ -1539,16 +1545,16 @@
         <v>48</v>
       </c>
       <c r="E26" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F26" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G26" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H26" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I26">
         <v>121</v>
@@ -1568,16 +1574,16 @@
         <v>47</v>
       </c>
       <c r="E27" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F27" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G27" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H27" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I27">
         <v>101</v>
@@ -1597,16 +1603,16 @@
         <v>49</v>
       </c>
       <c r="E28" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F28" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G28" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H28" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I28">
         <v>101</v>
@@ -1626,16 +1632,16 @@
         <v>50</v>
       </c>
       <c r="E29" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F29" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G29" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H29" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I29">
         <v>101</v>
@@ -1655,16 +1661,16 @@
         <v>51</v>
       </c>
       <c r="E30" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F30" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G30" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H30" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I30">
         <v>121</v>
@@ -1681,19 +1687,19 @@
         <v>20</v>
       </c>
       <c r="D31" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E31" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F31" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G31" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H31" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I31">
         <v>101</v>
@@ -1710,19 +1716,19 @@
         <v>21</v>
       </c>
       <c r="D32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E32" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F32" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G32" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H32" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I32">
         <v>217</v>
@@ -1742,16 +1748,16 @@
         <v>53</v>
       </c>
       <c r="E33" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F33" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G33" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H33" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I33">
         <v>101</v>
@@ -1771,16 +1777,16 @@
         <v>54</v>
       </c>
       <c r="E34" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F34" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G34" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H34" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I34">
         <v>110</v>
@@ -1797,19 +1803,19 @@
         <v>24</v>
       </c>
       <c r="D35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E35" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F35" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G35" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H35" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I35">
         <v>221</v>
@@ -1826,16 +1832,16 @@
         <v>55</v>
       </c>
       <c r="E36" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F36" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G36" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H36" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I36">
         <v>33</v>
@@ -1855,16 +1861,16 @@
         <v>56</v>
       </c>
       <c r="E37" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F37" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G37" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H37" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I37">
         <v>101</v>
@@ -1884,16 +1890,16 @@
         <v>57</v>
       </c>
       <c r="E38" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F38" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G38" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H38" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I38">
         <v>101</v>
@@ -1913,16 +1919,16 @@
         <v>58</v>
       </c>
       <c r="E39" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F39" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G39" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H39" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I39">
         <v>110</v>
@@ -1942,16 +1948,16 @@
         <v>59</v>
       </c>
       <c r="E40" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F40" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G40" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H40" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I40">
         <v>101</v>
@@ -1971,16 +1977,16 @@
         <v>60</v>
       </c>
       <c r="E41" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F41" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G41" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H41" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I41">
         <v>150</v>
@@ -2000,7 +2006,7 @@
         <v>61</v>
       </c>
       <c r="E42" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2017,16 +2023,16 @@
         <v>62</v>
       </c>
       <c r="E43" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F43" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G43" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H43" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I43">
         <v>104</v>
@@ -2046,16 +2052,16 @@
         <v>63</v>
       </c>
       <c r="E44" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F44" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G44" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H44" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I44">
         <v>121</v>
@@ -2075,16 +2081,16 @@
         <v>64</v>
       </c>
       <c r="E45" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F45" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G45" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H45" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I45">
         <v>101</v>
@@ -2104,16 +2110,16 @@
         <v>65</v>
       </c>
       <c r="E46" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F46" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G46" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H46" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I46">
         <v>121</v>
@@ -2133,16 +2139,16 @@
         <v>66</v>
       </c>
       <c r="E47" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F47" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G47" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H47" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I47">
         <v>110</v>
@@ -2156,19 +2162,19 @@
         <v>5</v>
       </c>
       <c r="D48" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E48" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F48" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G48" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H48" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I48">
         <v>33</v>
@@ -2185,19 +2191,19 @@
         <v>30</v>
       </c>
       <c r="D49" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E49" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F49" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G49" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H49" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I49">
         <v>110</v>
@@ -2214,19 +2220,19 @@
         <v>15</v>
       </c>
       <c r="D50" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E50" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F50" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G50" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H50" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I50">
         <v>110</v>
@@ -2243,19 +2249,19 @@
         <v>31</v>
       </c>
       <c r="D51" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E51" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F51" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G51" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H51" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I51">
         <v>110</v>
@@ -2272,19 +2278,19 @@
         <v>16</v>
       </c>
       <c r="D52" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E52" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F52" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G52" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H52" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I52">
         <v>157</v>
@@ -2301,19 +2307,19 @@
         <v>32</v>
       </c>
       <c r="D53" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E53" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F53" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G53" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H53" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I53">
         <v>101</v>
@@ -2333,16 +2339,16 @@
         <v>61</v>
       </c>
       <c r="E54" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F54" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G54" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H54" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I54">
         <v>101</v>
@@ -2359,19 +2365,19 @@
         <v>32</v>
       </c>
       <c r="D55" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E55" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F55" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G55" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H55" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I55">
         <v>101</v>
@@ -2388,19 +2394,19 @@
         <v>33</v>
       </c>
       <c r="D56" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E56" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F56" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G56" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H56" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I56">
         <v>110</v>
@@ -2417,19 +2423,19 @@
         <v>14</v>
       </c>
       <c r="D57" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E57" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F57" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G57" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H57" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I57">
         <v>101</v>
@@ -2446,19 +2452,19 @@
         <v>16</v>
       </c>
       <c r="D58" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="E58" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F58" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G58" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H58" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I58">
         <v>110</v>
@@ -2475,19 +2481,19 @@
         <v>29</v>
       </c>
       <c r="D59" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E59" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F59" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G59" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H59" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I59">
         <v>110</v>
@@ -2504,19 +2510,19 @@
         <v>34</v>
       </c>
       <c r="D60" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E60" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F60" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G60" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H60" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I60">
         <v>110</v>
@@ -2533,19 +2539,19 @@
         <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E61" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F61" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G61" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H61" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I61">
         <v>110</v>
